--- a/output.xlsx
+++ b/output.xlsx
@@ -489,10 +489,10 @@
         <v>3.336153134005934</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
-        <v>1.668076567002967</v>
+        <v>1.334461253602374</v>
       </c>
       <c r="K2">
         <v>575.88865542</v>
@@ -504,7 +504,7 @@
         <v>3.30773796825822</v>
       </c>
       <c r="N2">
-        <v>1.65386898412911</v>
+        <v>1.323095187303288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -533,10 +533,10 @@
         <v>2.994551714646976</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>1.497275857323488</v>
+        <v>1.19782068585879</v>
       </c>
       <c r="K3">
         <v>472.2116593185</v>
@@ -548,7 +548,7 @@
         <v>2.969482051511526</v>
       </c>
       <c r="N3">
-        <v>1.484741025755763</v>
+        <v>1.187792820604611</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -577,10 +577,10 @@
         <v>3.815373643475935</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>1.907686821737968</v>
+        <v>1.526149457390374</v>
       </c>
       <c r="K4">
         <v>575.4627022725</v>
@@ -592,7 +592,7 @@
         <v>3.782878696632072</v>
       </c>
       <c r="N4">
-        <v>1.891439348316036</v>
+        <v>1.513151478652829</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -621,10 +621,10 @@
         <v>2.999766468192259</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J5">
-        <v>1.49988323409613</v>
+        <v>1.199906587276904</v>
       </c>
       <c r="K5">
         <v>407.1260183805</v>
@@ -636,7 +636,7 @@
         <v>2.97502863148258</v>
       </c>
       <c r="N5">
-        <v>1.48751431574129</v>
+        <v>1.190011452593032</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -665,10 +665,10 @@
         <v>3.832021445568601</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J6">
-        <v>1.9160107227843</v>
+        <v>1.53280857822744</v>
       </c>
       <c r="K6">
         <v>532.6970062635</v>
@@ -680,7 +680,7 @@
         <v>3.799591069916183</v>
       </c>
       <c r="N6">
-        <v>1.899795534958091</v>
+        <v>1.519836427966473</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -709,10 +709,10 @@
         <v>2.458910714441926</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J7">
-        <v>1.229455357220963</v>
+        <v>0.9835642857767705</v>
       </c>
       <c r="K7">
         <v>332.8397894565</v>
@@ -724,7 +724,7 @@
         <v>2.439112426310676</v>
       </c>
       <c r="N7">
-        <v>1.219556213155338</v>
+        <v>0.9756449705242703</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -753,10 +753,10 @@
         <v>2.199444741166472</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J8">
-        <v>1.099722370583236</v>
+        <v>0.8797778964665888</v>
       </c>
       <c r="K8">
         <v>302.5119253545</v>
@@ -768,7 +768,7 @@
         <v>2.181962639243162</v>
       </c>
       <c r="N8">
-        <v>1.090981319621581</v>
+        <v>0.8727850556972648</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -797,10 +797,10 @@
         <v>4.229318654521739</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J9">
-        <v>2.11465932726087</v>
+        <v>1.691727461808696</v>
       </c>
       <c r="K9">
         <v>597.2715034245</v>
@@ -812,7 +812,7 @@
         <v>4.193193652619588</v>
       </c>
       <c r="N9">
-        <v>2.096596826309794</v>
+        <v>1.677277461047835</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -841,10 +841,10 @@
         <v>3.49400604184381</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J10">
-        <v>1.747003020921905</v>
+        <v>1.397602416737524</v>
       </c>
       <c r="K10">
         <v>481.4122473045</v>
@@ -856,7 +856,7 @@
         <v>3.464701893738532</v>
       </c>
       <c r="N10">
-        <v>1.732350946869266</v>
+        <v>1.385880757495413</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -885,10 +885,10 @@
         <v>2.352145049669065</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J11">
-        <v>1.176072524834532</v>
+        <v>0.9408580198676258</v>
       </c>
       <c r="K11">
         <v>322.361342028</v>
@@ -900,7 +900,7 @@
         <v>2.333285819470417</v>
       </c>
       <c r="N11">
-        <v>1.166642909735208</v>
+        <v>0.9333143277881668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -929,10 +929,10 @@
         <v>3.647969534776978</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J12">
-        <v>1.823984767388489</v>
+        <v>1.459187813910791</v>
       </c>
       <c r="K12">
         <v>527.2448059755</v>
@@ -944,7 +944,7 @@
         <v>3.617123928091082</v>
       </c>
       <c r="N12">
-        <v>1.808561964045541</v>
+        <v>1.446849571236433</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -973,10 +973,10 @@
         <v>1.225754796555241</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J13">
-        <v>0.6128773982776204</v>
+        <v>0.4903019186220964</v>
       </c>
       <c r="K13">
         <v>141.075682452</v>
@@ -988,7 +988,7 @@
         <v>1.217363200664442</v>
       </c>
       <c r="N13">
-        <v>0.6086816003322211</v>
+        <v>0.4869452802657769</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1017,10 +1017,10 @@
         <v>3.653511431029013</v>
       </c>
       <c r="I14">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J14">
-        <v>1.826755715514506</v>
+        <v>1.461404572411605</v>
       </c>
       <c r="K14">
         <v>550.0758946815</v>
@@ -1032,7 +1032,7 @@
         <v>3.622508447390641</v>
       </c>
       <c r="N14">
-        <v>1.811254223695321</v>
+        <v>1.449003378956257</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1061,10 +1061,10 @@
         <v>2.956426539463806</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J15">
-        <v>1.478213269731903</v>
+        <v>1.182570615785522</v>
       </c>
       <c r="K15">
         <v>385.913551635</v>
@@ -1076,7 +1076,7 @@
         <v>2.932190619442935</v>
       </c>
       <c r="N15">
-        <v>1.466095309721468</v>
+        <v>1.172876247777174</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1105,10 +1105,10 @@
         <v>2.911153101821258</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J16">
-        <v>1.455576550910629</v>
+        <v>1.164461240728503</v>
       </c>
       <c r="K16">
         <v>373.816482246</v>
@@ -1120,7 +1120,7 @@
         <v>2.88737585445543</v>
       </c>
       <c r="N16">
-        <v>1.443687927227715</v>
+        <v>1.154950341782172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1149,10 +1149,10 @@
         <v>5.147418543063888</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J17">
-        <v>2.573709271531944</v>
+        <v>2.058967417225555</v>
       </c>
       <c r="K17">
         <v>673.2615449384999</v>
@@ -1164,7 +1164,7 @@
         <v>5.103068151884762</v>
       </c>
       <c r="N17">
-        <v>2.551534075942381</v>
+        <v>2.041227260753905</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1193,10 +1193,10 @@
         <v>5.004562412915388</v>
       </c>
       <c r="I18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J18">
-        <v>2.502281206457694</v>
+        <v>2.001824965166155</v>
       </c>
       <c r="K18">
         <v>585.8559590714999</v>
@@ -1208,7 +1208,7 @@
         <v>4.961879312861077</v>
       </c>
       <c r="N18">
-        <v>2.480939656430539</v>
+        <v>1.984751725144431</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1237,10 +1237,10 @@
         <v>4.998201313246128</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J19">
-        <v>2.499100656623064</v>
+        <v>1.999280525298451</v>
       </c>
       <c r="K19">
         <v>678.287792079</v>
@@ -1252,7 +1252,7 @@
         <v>4.955114702389479</v>
       </c>
       <c r="N19">
-        <v>2.47755735119474</v>
+        <v>1.982045880955792</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1281,10 +1281,10 @@
         <v>4.931873749031412</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J20">
-        <v>2.465936874515706</v>
+        <v>1.972749499612565</v>
       </c>
       <c r="K20">
         <v>689.873717691</v>
@@ -1296,7 +1296,7 @@
         <v>4.889310257333615</v>
       </c>
       <c r="N20">
-        <v>2.444655128666807</v>
+        <v>1.955724102933446</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1325,10 +1325,10 @@
         <v>4.91364289</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J21">
-        <v>2.456821445</v>
+        <v>1.965457156</v>
       </c>
       <c r="K21">
         <v>699.415068195</v>
@@ -1340,7 +1340,7 @@
         <v>4.8711979432675</v>
       </c>
       <c r="N21">
-        <v>2.43559897163375</v>
+        <v>1.948479177307</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1369,10 +1369,10 @@
         <v>3.528055639110801</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J22">
-        <v>1.764027819555401</v>
+        <v>1.411222255644321</v>
       </c>
       <c r="K22">
         <v>490.7832165495</v>
@@ -1384,7 +1384,7 @@
         <v>3.498413110912884</v>
       </c>
       <c r="N22">
-        <v>1.749206555456442</v>
+        <v>1.399365244365153</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1413,10 +1413,10 @@
         <v>3.805151946720811</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J23">
-        <v>1.902575973360406</v>
+        <v>1.522060778688324</v>
       </c>
       <c r="K23">
         <v>496.1502262079999</v>
@@ -1428,7 +1428,7 @@
         <v>3.773149532330395</v>
       </c>
       <c r="N23">
-        <v>1.886574766165197</v>
+        <v>1.509259812932158</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1457,10 +1457,10 @@
         <v>5.415104319905465</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J24">
-        <v>2.707552159952733</v>
+        <v>2.166041727962186</v>
       </c>
       <c r="K24">
         <v>648.8118342720001</v>
@@ -1472,7 +1472,7 @@
         <v>5.368567725330387</v>
       </c>
       <c r="N24">
-        <v>2.684283862665194</v>
+        <v>2.147427090132155</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1501,10 +1501,10 @@
         <v>4.182467342317297</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J25">
-        <v>2.091233671158649</v>
+        <v>1.672986936926919</v>
       </c>
       <c r="K25">
         <v>490.1868821429999</v>
@@ -1516,7 +1516,7 @@
         <v>4.147330402205365</v>
       </c>
       <c r="N25">
-        <v>2.073665201102683</v>
+        <v>1.658932160882146</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1545,10 +1545,10 @@
         <v>5.141366360600577</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J26">
-        <v>2.570683180300288</v>
+        <v>2.056546544240231</v>
       </c>
       <c r="K26">
         <v>641.655821394</v>
@@ -1560,7 +1560,7 @@
         <v>5.097217155355012</v>
       </c>
       <c r="N26">
-        <v>2.548608577677506</v>
+        <v>2.038886862142005</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1589,10 +1589,10 @@
         <v>3.317083670912442</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J27">
-        <v>1.658541835456221</v>
+        <v>1.326833468364977</v>
       </c>
       <c r="K27">
         <v>408.744640341</v>
@@ -1604,7 +1604,7 @@
         <v>3.289717294421941</v>
       </c>
       <c r="N27">
-        <v>1.64485864721097</v>
+        <v>1.315886917768776</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1633,10 +1633,10 @@
         <v>2.672152251997435</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J28">
-        <v>1.336076125998718</v>
+        <v>1.068860900798974</v>
       </c>
       <c r="K28">
         <v>328.7506392405</v>
@@ -1648,7 +1648,7 @@
         <v>2.650671631945505</v>
       </c>
       <c r="N28">
-        <v>1.325335815972752</v>
+        <v>1.060268652778202</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1677,10 +1677,10 @@
         <v>4.828613736517887</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J29">
-        <v>2.414306868258944</v>
+        <v>1.931445494607155</v>
       </c>
       <c r="K29">
         <v>647.108021682</v>
@@ -1692,7 +1692,7 @@
         <v>4.787125102896324</v>
       </c>
       <c r="N29">
-        <v>2.393562551448162</v>
+        <v>1.91485004115853</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1721,10 +1721,10 @@
         <v>4.578591065334181</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J30">
-        <v>2.289295532667091</v>
+        <v>1.831436426133672</v>
       </c>
       <c r="K30">
         <v>594.63059391</v>
@@ -1736,7 +1736,7 @@
         <v>4.539496028279013</v>
       </c>
       <c r="N30">
-        <v>2.269748014139506</v>
+        <v>1.815798411311605</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1765,10 +1765,10 @@
         <v>1.216288916311688</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J31">
-        <v>0.6081444581558441</v>
+        <v>0.4865155665246753</v>
       </c>
       <c r="K31">
         <v>124.548700329</v>
@@ -1780,7 +1780,7 @@
         <v>1.208239704874766</v>
       </c>
       <c r="N31">
-        <v>0.604119852437383</v>
+        <v>0.4832958819499064</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1809,10 +1809,10 @@
         <v>4.262775192348291</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J32">
-        <v>2.131387596174146</v>
+        <v>1.705110076939317</v>
       </c>
       <c r="K32">
         <v>577.933230528</v>
@@ -1824,7 +1824,7 @@
         <v>4.226457490673726</v>
       </c>
       <c r="N32">
-        <v>2.113228745336863</v>
+        <v>1.69058299626949</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1853,10 +1853,10 @@
         <v>2.632972042691943</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J33">
-        <v>1.316486021345971</v>
+        <v>1.053188817076777</v>
       </c>
       <c r="K33">
         <v>331.9026925319999</v>
@@ -1868,7 +1868,7 @@
         <v>2.611780025230692</v>
       </c>
       <c r="N33">
-        <v>1.305890012615346</v>
+        <v>1.044712010092277</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1897,10 +1897,10 @@
         <v>3.174245326051967</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J34">
-        <v>3.174245326051967</v>
+        <v>2.221971728236377</v>
       </c>
       <c r="K34">
         <v>397.2439053584999</v>
@@ -1912,7 +1912,7 @@
         <v>3.148139083152055</v>
       </c>
       <c r="N34">
-        <v>3.148139083152055</v>
+        <v>2.203697358206438</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1941,10 +1941,10 @@
         <v>1.420815618775717</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J35">
-        <v>1.420815618775717</v>
+        <v>0.9945709331430016</v>
       </c>
       <c r="K35">
         <v>169.6145433345</v>
@@ -1956,7 +1956,7 @@
         <v>1.410643837371181</v>
       </c>
       <c r="N35">
-        <v>1.410643837371181</v>
+        <v>0.9874506861598269</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1985,10 +1985,10 @@
         <v>3.213803661164329</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J36">
-        <v>3.213803661164329</v>
+        <v>2.24966256281503</v>
       </c>
       <c r="K36">
         <v>445.035848508</v>
@@ -2000,7 +2000,7 @@
         <v>3.187053564230696</v>
       </c>
       <c r="N36">
-        <v>3.187053564230696</v>
+        <v>2.230937494961487</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2029,10 +2029,10 @@
         <v>4.590574736959907</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J37">
-        <v>4.590574736959907</v>
+        <v>3.213402315871935</v>
       </c>
       <c r="K37">
         <v>606.9832351875</v>
@@ -2044,7 +2044,7 @@
         <v>4.551315934850892</v>
       </c>
       <c r="N37">
-        <v>4.551315934850892</v>
+        <v>3.185921154395624</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2073,10 +2073,10 @@
         <v>5.490493998484458</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J38">
-        <v>5.490493998484458</v>
+        <v>3.84334579893912</v>
       </c>
       <c r="K38">
         <v>665.0832445065</v>
@@ -2088,7 +2088,7 @@
         <v>5.443227487943906</v>
       </c>
       <c r="N38">
-        <v>5.443227487943906</v>
+        <v>3.810259241560734</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2117,10 +2117,10 @@
         <v>5.21362653056338</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J39">
-        <v>5.21362653056338</v>
+        <v>3.649538571394366</v>
       </c>
       <c r="K39">
         <v>601.8717974175</v>
@@ -2132,7 +2132,7 @@
         <v>5.169067914733134</v>
       </c>
       <c r="N39">
-        <v>5.169067914733134</v>
+        <v>3.618347540313193</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2161,10 +2161,10 @@
         <v>4.490837873409825</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J40">
-        <v>4.490837873409825</v>
+        <v>3.143586511386878</v>
       </c>
       <c r="K40">
         <v>551.183372865</v>
@@ -2176,7 +2176,7 @@
         <v>4.452723174353642</v>
       </c>
       <c r="N40">
-        <v>4.452723174353642</v>
+        <v>3.116906222047549</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2205,10 +2205,10 @@
         <v>5.532581356981726</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J41">
-        <v>5.532581356981726</v>
+        <v>3.872806949887208</v>
       </c>
       <c r="K41">
         <v>669.6835384994999</v>
@@ -2220,7 +2220,7 @@
         <v>5.48492983433138</v>
       </c>
       <c r="N41">
-        <v>5.48492983433138</v>
+        <v>3.839450884031966</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2249,10 +2249,10 @@
         <v>5.612106909410137</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J42">
-        <v>5.612106909410137</v>
+        <v>3.928474836587096</v>
       </c>
       <c r="K42">
         <v>681.2694641115</v>
@@ -2264,7 +2264,7 @@
         <v>5.563713756903624</v>
       </c>
       <c r="N42">
-        <v>5.563713756903624</v>
+        <v>3.894599629832537</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2293,10 +2293,10 @@
         <v>6.021827360563409</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J43">
-        <v>6.021827360563409</v>
+        <v>4.215279152394387</v>
       </c>
       <c r="K43">
         <v>690.4700520975</v>
@@ -2308,7 +2308,7 @@
         <v>5.969854247834814</v>
       </c>
       <c r="N43">
-        <v>5.969854247834814</v>
+        <v>4.17889797348437</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2337,10 +2337,10 @@
         <v>6.233663307966014</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J44">
-        <v>6.233663307966014</v>
+        <v>4.36356431557621</v>
       </c>
       <c r="K44">
         <v>670.109491647</v>
@@ -2352,7 +2352,7 @@
         <v>6.179971091866054</v>
       </c>
       <c r="N44">
-        <v>6.179971091866054</v>
+        <v>4.325979764306238</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2381,10 +2381,10 @@
         <v>5.111098212268947</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J45">
-        <v>5.111098212268947</v>
+        <v>3.577768748588263</v>
       </c>
       <c r="K45">
         <v>565.5805892505</v>
@@ -2396,7 +2396,7 @@
         <v>5.067627980455828</v>
       </c>
       <c r="N45">
-        <v>5.067627980455828</v>
+        <v>3.547339586319079</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2425,10 +2425,10 @@
         <v>5.873929954059493</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J46">
-        <v>5.873929954059493</v>
+        <v>4.111750967841645</v>
       </c>
       <c r="K46">
         <v>653.241747006</v>
@@ -2440,7 +2440,7 @@
         <v>5.823425986274047</v>
       </c>
       <c r="N46">
-        <v>5.823425986274047</v>
+        <v>4.076398190391832</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2469,10 +2469,10 @@
         <v>5.445451756425532</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J47">
-        <v>5.445451756425532</v>
+        <v>3.811816229497872</v>
       </c>
       <c r="K47">
         <v>587.1338185139999</v>
@@ -2484,7 +2484,7 @@
         <v>5.399000500792716</v>
       </c>
       <c r="N47">
-        <v>5.399000500792716</v>
+        <v>3.779300350554901</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2513,10 +2513,10 @@
         <v>3.682617488658199</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J48">
-        <v>3.682617488658199</v>
+        <v>2.577832242060739</v>
       </c>
       <c r="K48">
         <v>421.863997284</v>
@@ -2528,7 +2528,7 @@
         <v>3.652132934356921</v>
       </c>
       <c r="N48">
-        <v>3.652132934356921</v>
+        <v>2.556493054049844</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2557,10 +2557,10 @@
         <v>5.570876841048149</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J49">
-        <v>5.570876841048149</v>
+        <v>3.899613788733704</v>
       </c>
       <c r="K49">
         <v>658.4383754055</v>
@@ -2572,7 +2572,7 @@
         <v>5.522951858256888</v>
       </c>
       <c r="N49">
-        <v>5.522951858256888</v>
+        <v>3.866066300779821</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2601,10 +2601,10 @@
         <v>4.347923557525038</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J50">
-        <v>4.347923557525038</v>
+        <v>3.043546490267527</v>
       </c>
       <c r="K50">
         <v>496.9169418735</v>
@@ -2616,7 +2616,7 @@
         <v>4.311351156264553</v>
       </c>
       <c r="N50">
-        <v>4.311351156264553</v>
+        <v>3.017945809385187</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2645,10 +2645,10 @@
         <v>2.48587168038806</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J51">
-        <v>2.48587168038806</v>
+        <v>1.740110176271642</v>
       </c>
       <c r="K51">
         <v>300.8081127645</v>
@@ -2660,7 +2660,7 @@
         <v>2.466128673314619</v>
       </c>
       <c r="N51">
-        <v>2.466128673314619</v>
+        <v>1.726290071320234</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2689,10 +2689,10 @@
         <v>3.965591222542951</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J52">
-        <v>3.965591222542951</v>
+        <v>2.775913855780066</v>
       </c>
       <c r="K52">
         <v>508.9288206329999</v>
@@ -2704,7 +2704,7 @@
         <v>3.932163273171085</v>
       </c>
       <c r="N52">
-        <v>3.932163273171085</v>
+        <v>2.75251429121976</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2733,10 +2733,10 @@
         <v>5.550575166714903</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J53">
-        <v>5.550575166714903</v>
+        <v>3.885402616700432</v>
       </c>
       <c r="K53">
         <v>694.2184397955001</v>
@@ -2748,7 +2748,7 @@
         <v>5.502652009815219</v>
       </c>
       <c r="N53">
-        <v>5.502652009815219</v>
+        <v>3.851856406870653</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2777,10 +2777,10 @@
         <v>5.614380604568507</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J54">
-        <v>5.614380604568507</v>
+        <v>3.930066423197955</v>
       </c>
       <c r="K54">
         <v>674.4542137515</v>
@@ -2792,7 +2792,7 @@
         <v>5.566000983771749</v>
       </c>
       <c r="N54">
-        <v>5.566000983771749</v>
+        <v>3.896200688640224</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2821,10 +2821,10 @@
         <v>3.468582965786408</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J55">
-        <v>3.468582965786408</v>
+        <v>2.428008076050485</v>
       </c>
       <c r="K55">
         <v>419.9046128055</v>
@@ -2836,7 +2836,7 @@
         <v>3.439884252964534</v>
       </c>
       <c r="N55">
-        <v>3.439884252964534</v>
+        <v>2.407918977075174</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2865,10 +2865,10 @@
         <v>2.28118472798784</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J56">
-        <v>2.28118472798784</v>
+        <v>1.596829309591488</v>
       </c>
       <c r="K56">
         <v>246.6268724025</v>
@@ -2880,7 +2880,7 @@
         <v>2.263613190212998</v>
       </c>
       <c r="N56">
-        <v>2.263613190212998</v>
+        <v>1.584529233149098</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2909,10 +2909,10 @@
         <v>3.176639476971981</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J57">
-        <v>3.176639476971981</v>
+        <v>2.223647633880387</v>
       </c>
       <c r="K57">
         <v>364.3603223715</v>
@@ -2924,7 +2924,7 @@
         <v>3.150772385573394</v>
       </c>
       <c r="N57">
-        <v>3.150772385573394</v>
+        <v>2.205540669901376</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2953,10 +2953,10 @@
         <v>4.236812068812003</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J58">
-        <v>4.236812068812003</v>
+        <v>2.965768448168402</v>
       </c>
       <c r="K58">
         <v>486.097731927</v>
@@ -2968,7 +2968,7 @@
         <v>4.201246038640629</v>
       </c>
       <c r="N58">
-        <v>4.201246038640629</v>
+        <v>2.94087222704844</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2997,10 +2997,10 @@
         <v>5.893015619857835</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J59">
-        <v>5.893015619857835</v>
+        <v>4.125110933900484</v>
       </c>
       <c r="K59">
         <v>656.0530377795</v>
@@ -3012,7 +3012,7 @@
         <v>5.842332244760255</v>
       </c>
       <c r="N59">
-        <v>5.842332244760255</v>
+        <v>4.089632571332179</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3041,10 +3041,10 @@
         <v>4.83811494187258</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J60">
-        <v>4.83811494187258</v>
+        <v>3.386680459310806</v>
       </c>
       <c r="K60">
         <v>540.1937816595001</v>
@@ -3056,7 +3056,7 @@
         <v>4.797121599459759</v>
       </c>
       <c r="N60">
-        <v>4.797121599459759</v>
+        <v>3.357985119621831</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3085,10 +3085,10 @@
         <v>4.260784952088116</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J61">
-        <v>4.260784952088116</v>
+        <v>2.982549466461681</v>
       </c>
       <c r="K61">
         <v>492.1462666215</v>
@@ -3100,7 +3100,7 @@
         <v>4.224976980333372</v>
       </c>
       <c r="N61">
-        <v>4.224976980333372</v>
+        <v>2.95748388623336</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3129,10 +3129,10 @@
         <v>3.230182557987347</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J62">
-        <v>3.230182557987347</v>
+        <v>2.261127790591143</v>
       </c>
       <c r="K62">
         <v>365.3826099255</v>
@@ -3144,7 +3144,7 @@
         <v>3.203870659203958</v>
       </c>
       <c r="N62">
-        <v>3.203870659203958</v>
+        <v>2.24270946144277</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3173,10 +3173,10 @@
         <v>1.701185052682019</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J63">
-        <v>1.701185052682019</v>
+        <v>1.190829536877414</v>
       </c>
       <c r="K63">
         <v>166.0365368955</v>
@@ -3188,7 +3188,7 @@
         <v>1.689065111759591</v>
       </c>
       <c r="N63">
-        <v>1.689065111759591</v>
+        <v>1.182345578231714</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3217,10 +3217,10 @@
         <v>3.243844972222318</v>
       </c>
       <c r="I64">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J64">
-        <v>2.270691480555622</v>
+        <v>2.919460475000086</v>
       </c>
       <c r="K64">
         <v>356.267212569</v>
@@ -3232,7 +3232,7 @@
         <v>3.217502253602254</v>
       </c>
       <c r="N64">
-        <v>2.252251577521577</v>
+        <v>2.895752028242028</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3261,10 +3261,10 @@
         <v>3.7680707424912</v>
       </c>
       <c r="I65">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J65">
-        <v>2.63764951974384</v>
+        <v>3.39126366824208</v>
       </c>
       <c r="K65">
         <v>436.17602304</v>
@@ -3276,7 +3276,7 @@
         <v>3.736770884024144</v>
       </c>
       <c r="N65">
-        <v>2.615739618816901</v>
+        <v>3.36309379562173</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3305,10 +3305,10 @@
         <v>4.406595458858659</v>
       </c>
       <c r="I66">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J66">
-        <v>3.084616821201061</v>
+        <v>3.965935912972793</v>
       </c>
       <c r="K66">
         <v>533.8896750765</v>
@@ -3320,7 +3320,7 @@
         <v>4.369295377128509</v>
       </c>
       <c r="N66">
-        <v>3.058506763989956</v>
+        <v>3.932365839415658</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3349,10 +3349,10 @@
         <v>3.815344467147541</v>
       </c>
       <c r="I67">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J67">
-        <v>2.670741127003279</v>
+        <v>3.433810020432787</v>
       </c>
       <c r="K67">
         <v>443.161654659</v>
@@ -3364,7 +3364,7 @@
         <v>3.783600891482163</v>
       </c>
       <c r="N67">
-        <v>2.648520624037514</v>
+        <v>3.405240802333947</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3393,10 +3393,10 @@
         <v>3.47187957386848</v>
       </c>
       <c r="I68">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J68">
-        <v>2.430315701707936</v>
+        <v>3.124691616481632</v>
       </c>
       <c r="K68">
         <v>434.642591709</v>
@@ -3408,7 +3408,7 @@
         <v>3.443050430440582</v>
       </c>
       <c r="N68">
-        <v>2.410135301308407</v>
+        <v>3.098745387396524</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3437,10 +3437,10 @@
         <v>1.682421419969681</v>
       </c>
       <c r="I69">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J69">
-        <v>1.177694993978776</v>
+        <v>1.514179277972713</v>
       </c>
       <c r="K69">
         <v>200.538741843</v>
@@ -3452,7 +3452,7 @@
         <v>1.669941770887479</v>
       </c>
       <c r="N69">
-        <v>1.168959239621235</v>
+        <v>1.502947593798731</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3481,10 +3481,10 @@
         <v>2.587351594601051</v>
       </c>
       <c r="I70">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J70">
-        <v>1.811146116220736</v>
+        <v>2.328616435140946</v>
       </c>
       <c r="K70">
         <v>309.4975569735</v>
@@ -3496,7 +3496,7 @@
         <v>2.56672072420674</v>
       </c>
       <c r="N70">
-        <v>1.796704506944718</v>
+        <v>2.310048651786066</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3525,10 +3525,10 @@
         <v>2.269824082630849</v>
       </c>
       <c r="I71">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J71">
-        <v>1.588876857841594</v>
+        <v>2.042841674367764</v>
       </c>
       <c r="K71">
         <v>283.0884618285</v>
@@ -3540,7 +3540,7 @@
         <v>2.251955094615214</v>
       </c>
       <c r="N71">
-        <v>1.57636856623065</v>
+        <v>2.026759585153693</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3569,10 +3569,10 @@
         <v>3.264805944405549</v>
       </c>
       <c r="I72">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J72">
-        <v>2.285364161083884</v>
+        <v>2.938325349964995</v>
       </c>
       <c r="K72">
         <v>429.190391421</v>
@@ -3584,7 +3584,7 @@
         <v>3.237731449398453</v>
       </c>
       <c r="N72">
-        <v>2.266412014578917</v>
+        <v>2.913958304458608</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3613,10 +3613,10 @@
         <v>3.535967891447941</v>
       </c>
       <c r="I73">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="J73">
-        <v>2.475177524013559</v>
+        <v>3.182371102303147</v>
       </c>
       <c r="K73">
         <v>472.9783749840001</v>
@@ -3628,7 +3628,7 @@
         <v>3.506361066176019</v>
       </c>
       <c r="N73">
-        <v>2.454452746323213</v>
+        <v>3.155724959558417</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3657,10 +3657,10 @@
         <v>4.506046117768801</v>
       </c>
       <c r="I74">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="J74">
-        <v>3.154232282438161</v>
+        <v>4.731348423657241</v>
       </c>
       <c r="K74">
         <v>608.772238407</v>
@@ -3672,7 +3672,7 @@
         <v>4.467501661415954</v>
       </c>
       <c r="N74">
-        <v>3.127251162991167</v>
+        <v>4.690876744486752</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3701,10 +3701,10 @@
         <v>4.929732026182196</v>
       </c>
       <c r="I75">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="J75">
-        <v>3.450812418327537</v>
+        <v>5.176218627491306</v>
       </c>
       <c r="K75">
         <v>622.3175484975</v>
@@ -3716,7 +3716,7 @@
         <v>4.887494204952255</v>
       </c>
       <c r="N75">
-        <v>3.421245943466578</v>
+        <v>5.131868915199868</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3745,10 +3745,10 @@
         <v>5.233516609375464</v>
       </c>
       <c r="I76">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="J76">
-        <v>3.663461626562824</v>
+        <v>5.495192439844237</v>
       </c>
       <c r="K76">
         <v>636.033239847</v>
@@ -3760,7 +3760,7 @@
         <v>5.188604559363276</v>
       </c>
       <c r="N76">
-        <v>3.632023191554293</v>
+        <v>5.448034787331441</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3789,10 +3789,10 @@
         <v>5.359468231248066</v>
       </c>
       <c r="I77">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>3.751627761873646</v>
+        <v>5.359468231248066</v>
       </c>
       <c r="K77">
         <v>600.1679848274999</v>
@@ -3804,7 +3804,7 @@
         <v>5.31367305598834</v>
       </c>
       <c r="N77">
-        <v>3.719571139191838</v>
+        <v>5.31367305598834</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3833,10 +3833,10 @@
         <v>4.256236933199359</v>
       </c>
       <c r="I78">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>2.979365853239551</v>
+        <v>4.256236933199359</v>
       </c>
       <c r="K78">
         <v>502.1135702730001</v>
@@ -3848,7 +3848,7 @@
         <v>4.22040213010011</v>
       </c>
       <c r="N78">
-        <v>2.954281491070077</v>
+        <v>4.22040213010011</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3877,10 +3877,10 @@
         <v>4.927308321427161</v>
       </c>
       <c r="I79">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J79">
-        <v>3.449115824999013</v>
+        <v>4.927308321427161</v>
       </c>
       <c r="K79">
         <v>580.2333775244999</v>
@@ -3892,7 +3892,7 @@
         <v>4.885315833561844</v>
       </c>
       <c r="N79">
-        <v>3.419721083493291</v>
+        <v>4.885315833561844</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3921,10 +3921,10 @@
         <v>5.141630708252879</v>
       </c>
       <c r="I80">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>3.599141495777015</v>
+        <v>5.141630708252879</v>
       </c>
       <c r="K80">
         <v>593.9490688740001</v>
@@ -3936,7 +3936,7 @@
         <v>5.097731940191111</v>
       </c>
       <c r="N80">
-        <v>3.568412358133778</v>
+        <v>5.097731940191111</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3965,10 +3965,10 @@
         <v>4.321475935700133</v>
       </c>
       <c r="I81">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>3.025033154990093</v>
+        <v>4.321475935700133</v>
       </c>
       <c r="K81">
         <v>497.5984669095</v>
@@ -3980,7 +3980,7 @@
         <v>4.285121483869872</v>
       </c>
       <c r="N81">
-        <v>2.99958503870891</v>
+        <v>4.285121483869872</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4009,10 +4009,10 @@
         <v>3.853145168306612</v>
       </c>
       <c r="I82">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>2.697201617814628</v>
+        <v>3.853145168306612</v>
       </c>
       <c r="K82">
         <v>435.664879263</v>
@@ -4024,7 +4024,7 @@
         <v>3.821142459971757</v>
       </c>
       <c r="N82">
-        <v>2.67479972198023</v>
+        <v>3.821142459971757</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4053,10 +4053,10 @@
         <v>1.90544273763039</v>
       </c>
       <c r="I83">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>1.333809916341273</v>
+        <v>1.90544273763039</v>
       </c>
       <c r="K83">
         <v>196.8755447745</v>
@@ -4068,7 +4068,7 @@
         <v>1.891360693128664</v>
       </c>
       <c r="N83">
-        <v>1.323952485190065</v>
+        <v>1.891360693128664</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4097,10 +4097,10 @@
         <v>3.998566401031378</v>
       </c>
       <c r="I84">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>2.798996480721964</v>
+        <v>3.998566401031378</v>
       </c>
       <c r="K84">
         <v>466.333505883</v>
@@ -4112,7 +4112,7 @@
         <v>3.965131384195644</v>
       </c>
       <c r="N84">
-        <v>2.775591968936951</v>
+        <v>3.965131384195644</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4141,10 +4141,10 @@
         <v>3.929183914695377</v>
       </c>
       <c r="I85">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J85">
-        <v>2.750428740286764</v>
+        <v>3.143347131756302</v>
       </c>
       <c r="K85">
         <v>444.183942213</v>
@@ -4156,7 +4156,7 @@
         <v>3.896485631153042</v>
       </c>
       <c r="N85">
-        <v>2.727539941807129</v>
+        <v>3.117188504922434</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4185,10 +4185,10 @@
         <v>4.810326849416058</v>
       </c>
       <c r="I86">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J86">
-        <v>3.367228794591241</v>
+        <v>3.848261479532847</v>
       </c>
       <c r="K86">
         <v>527.7559497525</v>
@@ -4200,7 +4200,7 @@
         <v>4.769649482993267</v>
       </c>
       <c r="N86">
-        <v>3.338754638095287</v>
+        <v>3.815719586394614</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4229,10 +4229,10 @@
         <v>3.216434633553691</v>
       </c>
       <c r="I87">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J87">
-        <v>2.251504243487584</v>
+        <v>2.573147706842953</v>
       </c>
       <c r="K87">
         <v>344.2553338095</v>
@@ -4244,7 +4244,7 @@
         <v>3.190425293562447</v>
       </c>
       <c r="N87">
-        <v>2.233297705493713</v>
+        <v>2.552340234849958</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4273,10 +4273,10 @@
         <v>3.112298682032323</v>
       </c>
       <c r="I88">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J88">
-        <v>2.178609077422626</v>
+        <v>2.489838945625858</v>
       </c>
       <c r="K88">
         <v>362.741700411</v>
@@ -4288,7 +4288,7 @@
         <v>3.086969039490127</v>
       </c>
       <c r="N88">
-        <v>2.160878327643089</v>
+        <v>2.469575231592102</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4317,10 +4317,10 @@
         <v>2.848256959387755</v>
       </c>
       <c r="I89">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J89">
-        <v>1.993779871571429</v>
+        <v>2.278605567510204</v>
       </c>
       <c r="K89">
         <v>351.837299835</v>
@@ -4332,7 +4332,7 @@
         <v>2.825162240676683</v>
       </c>
       <c r="N89">
-        <v>1.977613568473678</v>
+        <v>2.260129792541347</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4361,10 +4361,10 @@
         <v>2.45454306935363</v>
       </c>
       <c r="I90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J90">
-        <v>1.718180148547541</v>
+        <v>1.963634455482904</v>
       </c>
       <c r="K90">
         <v>302.3415440955</v>
@@ -4376,7 +4376,7 @@
         <v>2.435034886711524</v>
       </c>
       <c r="N90">
-        <v>1.704524420698067</v>
+        <v>1.948027909369219</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4405,10 +4405,10 @@
         <v>2.805916298735632</v>
       </c>
       <c r="I91">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J91">
-        <v>1.964141409114942</v>
+        <v>2.244733038988506</v>
       </c>
       <c r="K91">
         <v>346.2999089175</v>
@@ -4420,7 +4420,7 @@
         <v>2.783209705156235</v>
       </c>
       <c r="N91">
-        <v>1.948246793609365</v>
+        <v>2.226567764124988</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4449,10 +4449,10 @@
         <v>2.768322892725848</v>
       </c>
       <c r="I92">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J92">
-        <v>1.937826024908094</v>
+        <v>2.214658314180679</v>
       </c>
       <c r="K92">
         <v>348.5148652845</v>
@@ -4464,7 +4464,7 @@
         <v>2.745902687952469</v>
       </c>
       <c r="N92">
-        <v>1.922131881566728</v>
+        <v>2.196722150361975</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4493,10 +4493,10 @@
         <v>3.427480728204379</v>
       </c>
       <c r="I93">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J93">
-        <v>2.399236509743065</v>
+        <v>2.741984582563504</v>
       </c>
       <c r="K93">
         <v>415.219128183</v>
@@ -4508,7 +4508,7 @@
         <v>3.399155819789657</v>
       </c>
       <c r="N93">
-        <v>2.37940907385276</v>
+        <v>2.719324655831726</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4537,10 +4537,10 @@
         <v>2.185639776345483</v>
       </c>
       <c r="I94">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J94">
-        <v>1.529947843441838</v>
+        <v>1.748511821076387</v>
       </c>
       <c r="K94">
         <v>247.3083974385</v>
@@ -4552,7 +4552,7 @@
         <v>2.168796439634573</v>
       </c>
       <c r="N94">
-        <v>1.518157507744201</v>
+        <v>1.735037151707659</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4581,10 +4581,10 @@
         <v>4.347460880173629</v>
       </c>
       <c r="I95">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J95">
-        <v>3.04322261612154</v>
+        <v>3.477968704138903</v>
       </c>
       <c r="K95">
         <v>507.6509611905</v>
@@ -4596,7 +4596,7 @@
         <v>4.310822141494359</v>
       </c>
       <c r="N95">
-        <v>3.017575499046051</v>
+        <v>3.448657713195487</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4625,10 +4625,10 @@
         <v>4.78309551707317</v>
       </c>
       <c r="I96">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J96">
-        <v>3.348166861951219</v>
+        <v>3.826476413658536</v>
       </c>
       <c r="K96">
         <v>548.286891462</v>
@@ -4640,7 +4640,7 @@
         <v>4.742518042076829</v>
       </c>
       <c r="N96">
-        <v>3.31976262945378</v>
+        <v>3.794014433661463</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4669,10 +4669,10 @@
         <v>2.006372039078385</v>
       </c>
       <c r="I97">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J97">
-        <v>1.404460427354869</v>
+        <v>1.605097631262708</v>
       </c>
       <c r="K97">
         <v>217.576867743</v>
@@ -4684,7 +4684,7 @@
         <v>1.991254932633774</v>
       </c>
       <c r="N97">
-        <v>1.393878452843642</v>
+        <v>1.593003946107019</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>temperature_2m</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>ETR_PV</t>
+  </si>
+  <si>
+    <t>RDU</t>
+  </si>
+  <si>
+    <t>capacité au champs</t>
   </si>
 </sst>
 </file>
@@ -416,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +468,14 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>42144</v>
       </c>
@@ -489,10 +501,10 @@
         <v>3.336153134005934</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>1.334461253602374</v>
+        <v>1.668076567002967</v>
       </c>
       <c r="K2">
         <v>575.88865542</v>
@@ -504,10 +516,16 @@
         <v>3.30773796825822</v>
       </c>
       <c r="N2">
-        <v>1.323095187303288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.65386898412911</v>
+      </c>
+      <c r="O2">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P2">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>42145</v>
       </c>
@@ -533,10 +551,10 @@
         <v>2.994551714646976</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J3">
-        <v>1.19782068585879</v>
+        <v>1.497275857323488</v>
       </c>
       <c r="K3">
         <v>472.2116593185</v>
@@ -548,10 +566,16 @@
         <v>2.969482051511526</v>
       </c>
       <c r="N3">
-        <v>1.187792820604611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.484741025755763</v>
+      </c>
+      <c r="O3">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P3">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>42146</v>
       </c>
@@ -577,10 +601,10 @@
         <v>3.815373643475935</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>1.526149457390374</v>
+        <v>1.907686821737968</v>
       </c>
       <c r="K4">
         <v>575.4627022725</v>
@@ -592,10 +616,16 @@
         <v>3.782878696632072</v>
       </c>
       <c r="N4">
-        <v>1.513151478652829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.891439348316036</v>
+      </c>
+      <c r="O4">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P4">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>42147</v>
       </c>
@@ -621,10 +651,10 @@
         <v>2.999766468192259</v>
       </c>
       <c r="I5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <v>1.199906587276904</v>
+        <v>1.49988323409613</v>
       </c>
       <c r="K5">
         <v>407.1260183805</v>
@@ -636,10 +666,16 @@
         <v>2.97502863148258</v>
       </c>
       <c r="N5">
-        <v>1.190011452593032</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.48751431574129</v>
+      </c>
+      <c r="O5">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P5">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>42148</v>
       </c>
@@ -665,10 +701,10 @@
         <v>3.832021445568601</v>
       </c>
       <c r="I6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
-        <v>1.53280857822744</v>
+        <v>1.9160107227843</v>
       </c>
       <c r="K6">
         <v>532.6970062635</v>
@@ -680,10 +716,16 @@
         <v>3.799591069916183</v>
       </c>
       <c r="N6">
-        <v>1.519836427966473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.899795534958091</v>
+      </c>
+      <c r="O6">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P6">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>42149</v>
       </c>
@@ -709,10 +751,10 @@
         <v>2.458910714441926</v>
       </c>
       <c r="I7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J7">
-        <v>0.9835642857767705</v>
+        <v>1.229455357220963</v>
       </c>
       <c r="K7">
         <v>332.8397894565</v>
@@ -724,10 +766,16 @@
         <v>2.439112426310676</v>
       </c>
       <c r="N7">
-        <v>0.9756449705242703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.219556213155338</v>
+      </c>
+      <c r="O7">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P7">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>42150</v>
       </c>
@@ -753,10 +801,10 @@
         <v>2.199444741166472</v>
       </c>
       <c r="I8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J8">
-        <v>0.8797778964665888</v>
+        <v>1.099722370583236</v>
       </c>
       <c r="K8">
         <v>302.5119253545</v>
@@ -768,10 +816,16 @@
         <v>2.181962639243162</v>
       </c>
       <c r="N8">
-        <v>0.8727850556972648</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.090981319621581</v>
+      </c>
+      <c r="O8">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P8">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>42151</v>
       </c>
@@ -797,10 +851,10 @@
         <v>4.229318654521739</v>
       </c>
       <c r="I9">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>1.691727461808696</v>
+        <v>2.11465932726087</v>
       </c>
       <c r="K9">
         <v>597.2715034245</v>
@@ -812,10 +866,16 @@
         <v>4.193193652619588</v>
       </c>
       <c r="N9">
-        <v>1.677277461047835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>2.096596826309794</v>
+      </c>
+      <c r="O9">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P9">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>42152</v>
       </c>
@@ -841,10 +901,10 @@
         <v>3.49400604184381</v>
       </c>
       <c r="I10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J10">
-        <v>1.397602416737524</v>
+        <v>1.747003020921905</v>
       </c>
       <c r="K10">
         <v>481.4122473045</v>
@@ -856,10 +916,16 @@
         <v>3.464701893738532</v>
       </c>
       <c r="N10">
-        <v>1.385880757495413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.732350946869266</v>
+      </c>
+      <c r="O10">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P10">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>42153</v>
       </c>
@@ -885,10 +951,10 @@
         <v>2.352145049669065</v>
       </c>
       <c r="I11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J11">
-        <v>0.9408580198676258</v>
+        <v>1.176072524834532</v>
       </c>
       <c r="K11">
         <v>322.361342028</v>
@@ -900,10 +966,16 @@
         <v>2.333285819470417</v>
       </c>
       <c r="N11">
-        <v>0.9333143277881668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.166642909735208</v>
+      </c>
+      <c r="O11">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P11">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>42154</v>
       </c>
@@ -929,10 +1001,10 @@
         <v>3.647969534776978</v>
       </c>
       <c r="I12">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>1.459187813910791</v>
+        <v>1.823984767388489</v>
       </c>
       <c r="K12">
         <v>527.2448059755</v>
@@ -944,10 +1016,16 @@
         <v>3.617123928091082</v>
       </c>
       <c r="N12">
-        <v>1.446849571236433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.808561964045541</v>
+      </c>
+      <c r="O12">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P12">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>42155</v>
       </c>
@@ -973,10 +1051,10 @@
         <v>1.225754796555241</v>
       </c>
       <c r="I13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J13">
-        <v>0.4903019186220964</v>
+        <v>0.6128773982776204</v>
       </c>
       <c r="K13">
         <v>141.075682452</v>
@@ -988,10 +1066,16 @@
         <v>1.217363200664442</v>
       </c>
       <c r="N13">
-        <v>0.4869452802657769</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.6086816003322211</v>
+      </c>
+      <c r="O13">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P13">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>42156</v>
       </c>
@@ -1017,10 +1101,10 @@
         <v>3.653511431029013</v>
       </c>
       <c r="I14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>1.461404572411605</v>
+        <v>1.826755715514506</v>
       </c>
       <c r="K14">
         <v>550.0758946815</v>
@@ -1032,10 +1116,16 @@
         <v>3.622508447390641</v>
       </c>
       <c r="N14">
-        <v>1.449003378956257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.811254223695321</v>
+      </c>
+      <c r="O14">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P14">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>42157</v>
       </c>
@@ -1061,10 +1151,10 @@
         <v>2.956426539463806</v>
       </c>
       <c r="I15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J15">
-        <v>1.182570615785522</v>
+        <v>1.478213269731903</v>
       </c>
       <c r="K15">
         <v>385.913551635</v>
@@ -1076,10 +1166,16 @@
         <v>2.932190619442935</v>
       </c>
       <c r="N15">
-        <v>1.172876247777174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.466095309721468</v>
+      </c>
+      <c r="O15">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P15">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
         <v>42158</v>
       </c>
@@ -1105,10 +1201,10 @@
         <v>2.911153101821258</v>
       </c>
       <c r="I16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
-        <v>1.164461240728503</v>
+        <v>1.455576550910629</v>
       </c>
       <c r="K16">
         <v>373.816482246</v>
@@ -1120,10 +1216,16 @@
         <v>2.88737585445543</v>
       </c>
       <c r="N16">
-        <v>1.154950341782172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.443687927227715</v>
+      </c>
+      <c r="O16">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P16">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>42159</v>
       </c>
@@ -1149,10 +1251,10 @@
         <v>5.147418543063888</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J17">
-        <v>2.058967417225555</v>
+        <v>2.573709271531944</v>
       </c>
       <c r="K17">
         <v>673.2615449384999</v>
@@ -1164,10 +1266,16 @@
         <v>5.103068151884762</v>
       </c>
       <c r="N17">
-        <v>2.041227260753905</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>2.551534075942381</v>
+      </c>
+      <c r="O17">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P17">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>42160</v>
       </c>
@@ -1193,10 +1301,10 @@
         <v>5.004562412915388</v>
       </c>
       <c r="I18">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J18">
-        <v>2.001824965166155</v>
+        <v>2.502281206457694</v>
       </c>
       <c r="K18">
         <v>585.8559590714999</v>
@@ -1208,10 +1316,16 @@
         <v>4.961879312861077</v>
       </c>
       <c r="N18">
-        <v>1.984751725144431</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>2.480939656430539</v>
+      </c>
+      <c r="O18">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P18">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>42161</v>
       </c>
@@ -1237,10 +1351,10 @@
         <v>4.998201313246128</v>
       </c>
       <c r="I19">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J19">
-        <v>1.999280525298451</v>
+        <v>2.499100656623064</v>
       </c>
       <c r="K19">
         <v>678.287792079</v>
@@ -1252,10 +1366,16 @@
         <v>4.955114702389479</v>
       </c>
       <c r="N19">
-        <v>1.982045880955792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>2.47755735119474</v>
+      </c>
+      <c r="O19">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P19">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>42162</v>
       </c>
@@ -1281,10 +1401,10 @@
         <v>4.931873749031412</v>
       </c>
       <c r="I20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J20">
-        <v>1.972749499612565</v>
+        <v>2.465936874515706</v>
       </c>
       <c r="K20">
         <v>689.873717691</v>
@@ -1296,10 +1416,16 @@
         <v>4.889310257333615</v>
       </c>
       <c r="N20">
-        <v>1.955724102933446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>2.444655128666807</v>
+      </c>
+      <c r="O20">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P20">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>42163</v>
       </c>
@@ -1325,10 +1451,10 @@
         <v>4.91364289</v>
       </c>
       <c r="I21">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
-        <v>1.965457156</v>
+        <v>2.456821445</v>
       </c>
       <c r="K21">
         <v>699.415068195</v>
@@ -1340,10 +1466,16 @@
         <v>4.8711979432675</v>
       </c>
       <c r="N21">
-        <v>1.948479177307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>2.43559897163375</v>
+      </c>
+      <c r="O21">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P21">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>42164</v>
       </c>
@@ -1369,10 +1501,10 @@
         <v>3.528055639110801</v>
       </c>
       <c r="I22">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J22">
-        <v>1.411222255644321</v>
+        <v>1.764027819555401</v>
       </c>
       <c r="K22">
         <v>490.7832165495</v>
@@ -1384,10 +1516,16 @@
         <v>3.498413110912884</v>
       </c>
       <c r="N22">
-        <v>1.399365244365153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.749206555456442</v>
+      </c>
+      <c r="O22">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P22">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>42165</v>
       </c>
@@ -1413,10 +1551,10 @@
         <v>3.805151946720811</v>
       </c>
       <c r="I23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
-        <v>1.522060778688324</v>
+        <v>1.902575973360406</v>
       </c>
       <c r="K23">
         <v>496.1502262079999</v>
@@ -1428,10 +1566,16 @@
         <v>3.773149532330395</v>
       </c>
       <c r="N23">
-        <v>1.509259812932158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.886574766165197</v>
+      </c>
+      <c r="O23">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P23">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
         <v>42166</v>
       </c>
@@ -1457,10 +1601,10 @@
         <v>5.415104319905465</v>
       </c>
       <c r="I24">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
-        <v>2.166041727962186</v>
+        <v>2.707552159952733</v>
       </c>
       <c r="K24">
         <v>648.8118342720001</v>
@@ -1472,10 +1616,16 @@
         <v>5.368567725330387</v>
       </c>
       <c r="N24">
-        <v>2.147427090132155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>2.684283862665194</v>
+      </c>
+      <c r="O24">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P24">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
         <v>42167</v>
       </c>
@@ -1501,10 +1651,10 @@
         <v>4.182467342317297</v>
       </c>
       <c r="I25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>1.672986936926919</v>
+        <v>2.091233671158649</v>
       </c>
       <c r="K25">
         <v>490.1868821429999</v>
@@ -1516,10 +1666,16 @@
         <v>4.147330402205365</v>
       </c>
       <c r="N25">
-        <v>1.658932160882146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>2.073665201102683</v>
+      </c>
+      <c r="O25">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P25">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
         <v>42168</v>
       </c>
@@ -1545,10 +1701,10 @@
         <v>5.141366360600577</v>
       </c>
       <c r="I26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J26">
-        <v>2.056546544240231</v>
+        <v>2.570683180300288</v>
       </c>
       <c r="K26">
         <v>641.655821394</v>
@@ -1560,10 +1716,16 @@
         <v>5.097217155355012</v>
       </c>
       <c r="N26">
-        <v>2.038886862142005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>2.548608577677506</v>
+      </c>
+      <c r="O26">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P26">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2">
         <v>42169</v>
       </c>
@@ -1589,10 +1751,10 @@
         <v>3.317083670912442</v>
       </c>
       <c r="I27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J27">
-        <v>1.326833468364977</v>
+        <v>1.658541835456221</v>
       </c>
       <c r="K27">
         <v>408.744640341</v>
@@ -1604,10 +1766,16 @@
         <v>3.289717294421941</v>
       </c>
       <c r="N27">
-        <v>1.315886917768776</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>1.64485864721097</v>
+      </c>
+      <c r="O27">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P27">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2">
         <v>42170</v>
       </c>
@@ -1633,10 +1801,10 @@
         <v>2.672152251997435</v>
       </c>
       <c r="I28">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J28">
-        <v>1.068860900798974</v>
+        <v>1.336076125998718</v>
       </c>
       <c r="K28">
         <v>328.7506392405</v>
@@ -1648,10 +1816,16 @@
         <v>2.650671631945505</v>
       </c>
       <c r="N28">
-        <v>1.060268652778202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>1.325335815972752</v>
+      </c>
+      <c r="O28">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P28">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2">
         <v>42171</v>
       </c>
@@ -1677,10 +1851,10 @@
         <v>4.828613736517887</v>
       </c>
       <c r="I29">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J29">
-        <v>1.931445494607155</v>
+        <v>2.414306868258944</v>
       </c>
       <c r="K29">
         <v>647.108021682</v>
@@ -1692,10 +1866,16 @@
         <v>4.787125102896324</v>
       </c>
       <c r="N29">
-        <v>1.91485004115853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>2.393562551448162</v>
+      </c>
+      <c r="O29">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P29">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2">
         <v>42172</v>
       </c>
@@ -1721,10 +1901,10 @@
         <v>4.578591065334181</v>
       </c>
       <c r="I30">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J30">
-        <v>1.831436426133672</v>
+        <v>2.289295532667091</v>
       </c>
       <c r="K30">
         <v>594.63059391</v>
@@ -1736,10 +1916,16 @@
         <v>4.539496028279013</v>
       </c>
       <c r="N30">
-        <v>1.815798411311605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>2.269748014139506</v>
+      </c>
+      <c r="O30">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P30">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2">
         <v>42173</v>
       </c>
@@ -1765,10 +1951,10 @@
         <v>1.216288916311688</v>
       </c>
       <c r="I31">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
-        <v>0.4865155665246753</v>
+        <v>0.6081444581558441</v>
       </c>
       <c r="K31">
         <v>124.548700329</v>
@@ -1780,10 +1966,16 @@
         <v>1.208239704874766</v>
       </c>
       <c r="N31">
-        <v>0.4832958819499064</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>0.604119852437383</v>
+      </c>
+      <c r="O31">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P31">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2">
         <v>42174</v>
       </c>
@@ -1809,10 +2001,10 @@
         <v>4.262775192348291</v>
       </c>
       <c r="I32">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>1.705110076939317</v>
+        <v>2.131387596174146</v>
       </c>
       <c r="K32">
         <v>577.933230528</v>
@@ -1824,10 +2016,16 @@
         <v>4.226457490673726</v>
       </c>
       <c r="N32">
-        <v>1.69058299626949</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>2.113228745336863</v>
+      </c>
+      <c r="O32">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P32">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2">
         <v>42175</v>
       </c>
@@ -1853,10 +2051,10 @@
         <v>2.632972042691943</v>
       </c>
       <c r="I33">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J33">
-        <v>1.053188817076777</v>
+        <v>1.316486021345971</v>
       </c>
       <c r="K33">
         <v>331.9026925319999</v>
@@ -1868,10 +2066,16 @@
         <v>2.611780025230692</v>
       </c>
       <c r="N33">
-        <v>1.044712010092277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>1.305890012615346</v>
+      </c>
+      <c r="O33">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P33">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2">
         <v>42176</v>
       </c>
@@ -1897,10 +2101,10 @@
         <v>3.174245326051967</v>
       </c>
       <c r="I34">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>2.221971728236377</v>
+        <v>3.174245326051967</v>
       </c>
       <c r="K34">
         <v>397.2439053584999</v>
@@ -1912,10 +2116,16 @@
         <v>3.148139083152055</v>
       </c>
       <c r="N34">
-        <v>2.203697358206438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>3.148139083152055</v>
+      </c>
+      <c r="O34">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P34">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="2">
         <v>42177</v>
       </c>
@@ -1941,10 +2151,10 @@
         <v>1.420815618775717</v>
       </c>
       <c r="I35">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0.9945709331430016</v>
+        <v>1.420815618775717</v>
       </c>
       <c r="K35">
         <v>169.6145433345</v>
@@ -1956,10 +2166,16 @@
         <v>1.410643837371181</v>
       </c>
       <c r="N35">
-        <v>0.9874506861598269</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>1.410643837371181</v>
+      </c>
+      <c r="O35">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P35">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="2">
         <v>42178</v>
       </c>
@@ -1985,10 +2201,10 @@
         <v>3.213803661164329</v>
       </c>
       <c r="I36">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>2.24966256281503</v>
+        <v>3.213803661164329</v>
       </c>
       <c r="K36">
         <v>445.035848508</v>
@@ -2000,10 +2216,16 @@
         <v>3.187053564230696</v>
       </c>
       <c r="N36">
-        <v>2.230937494961487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>3.187053564230696</v>
+      </c>
+      <c r="O36">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P36">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="2">
         <v>42179</v>
       </c>
@@ -2029,10 +2251,10 @@
         <v>4.590574736959907</v>
       </c>
       <c r="I37">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>3.213402315871935</v>
+        <v>4.590574736959907</v>
       </c>
       <c r="K37">
         <v>606.9832351875</v>
@@ -2044,10 +2266,16 @@
         <v>4.551315934850892</v>
       </c>
       <c r="N37">
-        <v>3.185921154395624</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>4.551315934850892</v>
+      </c>
+      <c r="O37">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P37">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2">
         <v>42180</v>
       </c>
@@ -2073,10 +2301,10 @@
         <v>5.490493998484458</v>
       </c>
       <c r="I38">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>3.84334579893912</v>
+        <v>5.490493998484458</v>
       </c>
       <c r="K38">
         <v>665.0832445065</v>
@@ -2088,10 +2316,16 @@
         <v>5.443227487943906</v>
       </c>
       <c r="N38">
-        <v>3.810259241560734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>5.443227487943906</v>
+      </c>
+      <c r="O38">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P38">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="2">
         <v>42181</v>
       </c>
@@ -2117,10 +2351,10 @@
         <v>5.21362653056338</v>
       </c>
       <c r="I39">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>3.649538571394366</v>
+        <v>5.21362653056338</v>
       </c>
       <c r="K39">
         <v>601.8717974175</v>
@@ -2132,10 +2366,16 @@
         <v>5.169067914733134</v>
       </c>
       <c r="N39">
-        <v>3.618347540313193</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>5.169067914733134</v>
+      </c>
+      <c r="O39">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P39">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2">
         <v>42182</v>
       </c>
@@ -2161,10 +2401,10 @@
         <v>4.490837873409825</v>
       </c>
       <c r="I40">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>3.143586511386878</v>
+        <v>4.490837873409825</v>
       </c>
       <c r="K40">
         <v>551.183372865</v>
@@ -2176,10 +2416,16 @@
         <v>4.452723174353642</v>
       </c>
       <c r="N40">
-        <v>3.116906222047549</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>4.452723174353642</v>
+      </c>
+      <c r="O40">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P40">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2">
         <v>42183</v>
       </c>
@@ -2205,10 +2451,10 @@
         <v>5.532581356981726</v>
       </c>
       <c r="I41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>3.872806949887208</v>
+        <v>5.532581356981726</v>
       </c>
       <c r="K41">
         <v>669.6835384994999</v>
@@ -2220,10 +2466,16 @@
         <v>5.48492983433138</v>
       </c>
       <c r="N41">
-        <v>3.839450884031966</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>5.48492983433138</v>
+      </c>
+      <c r="O41">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P41">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2">
         <v>42184</v>
       </c>
@@ -2249,10 +2501,10 @@
         <v>5.612106909410137</v>
       </c>
       <c r="I42">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>3.928474836587096</v>
+        <v>5.612106909410137</v>
       </c>
       <c r="K42">
         <v>681.2694641115</v>
@@ -2264,10 +2516,16 @@
         <v>5.563713756903624</v>
       </c>
       <c r="N42">
-        <v>3.894599629832537</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>5.563713756903624</v>
+      </c>
+      <c r="O42">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P42">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2">
         <v>42185</v>
       </c>
@@ -2293,10 +2551,10 @@
         <v>6.021827360563409</v>
       </c>
       <c r="I43">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>4.215279152394387</v>
+        <v>6.021827360563409</v>
       </c>
       <c r="K43">
         <v>690.4700520975</v>
@@ -2308,10 +2566,16 @@
         <v>5.969854247834814</v>
       </c>
       <c r="N43">
-        <v>4.17889797348437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>5.969854247834814</v>
+      </c>
+      <c r="O43">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P43">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2">
         <v>42186</v>
       </c>
@@ -2337,10 +2601,10 @@
         <v>6.233663307966014</v>
       </c>
       <c r="I44">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>4.36356431557621</v>
+        <v>6.233663307966014</v>
       </c>
       <c r="K44">
         <v>670.109491647</v>
@@ -2352,10 +2616,16 @@
         <v>6.179971091866054</v>
       </c>
       <c r="N44">
-        <v>4.325979764306238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>6.179971091866054</v>
+      </c>
+      <c r="O44">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P44">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="2">
         <v>42187</v>
       </c>
@@ -2381,10 +2651,10 @@
         <v>5.111098212268947</v>
       </c>
       <c r="I45">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>3.577768748588263</v>
+        <v>5.111098212268947</v>
       </c>
       <c r="K45">
         <v>565.5805892505</v>
@@ -2396,10 +2666,16 @@
         <v>5.067627980455828</v>
       </c>
       <c r="N45">
-        <v>3.547339586319079</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>5.067627980455828</v>
+      </c>
+      <c r="O45">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P45">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="2">
         <v>42188</v>
       </c>
@@ -2425,10 +2701,10 @@
         <v>5.873929954059493</v>
       </c>
       <c r="I46">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>4.111750967841645</v>
+        <v>5.873929954059493</v>
       </c>
       <c r="K46">
         <v>653.241747006</v>
@@ -2440,10 +2716,16 @@
         <v>5.823425986274047</v>
       </c>
       <c r="N46">
-        <v>4.076398190391832</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>5.823425986274047</v>
+      </c>
+      <c r="O46">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P46">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="2">
         <v>42189</v>
       </c>
@@ -2469,10 +2751,10 @@
         <v>5.445451756425532</v>
       </c>
       <c r="I47">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>3.811816229497872</v>
+        <v>5.445451756425532</v>
       </c>
       <c r="K47">
         <v>587.1338185139999</v>
@@ -2484,10 +2766,16 @@
         <v>5.399000500792716</v>
       </c>
       <c r="N47">
-        <v>3.779300350554901</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>5.399000500792716</v>
+      </c>
+      <c r="O47">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P47">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2">
         <v>42190</v>
       </c>
@@ -2513,10 +2801,10 @@
         <v>3.682617488658199</v>
       </c>
       <c r="I48">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>2.577832242060739</v>
+        <v>3.682617488658199</v>
       </c>
       <c r="K48">
         <v>421.863997284</v>
@@ -2528,10 +2816,16 @@
         <v>3.652132934356921</v>
       </c>
       <c r="N48">
-        <v>2.556493054049844</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>3.652132934356921</v>
+      </c>
+      <c r="O48">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P48">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>42191</v>
       </c>
@@ -2557,10 +2851,10 @@
         <v>5.570876841048149</v>
       </c>
       <c r="I49">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>3.899613788733704</v>
+        <v>5.570876841048149</v>
       </c>
       <c r="K49">
         <v>658.4383754055</v>
@@ -2572,10 +2866,16 @@
         <v>5.522951858256888</v>
       </c>
       <c r="N49">
-        <v>3.866066300779821</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>5.522951858256888</v>
+      </c>
+      <c r="O49">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P49">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>42192</v>
       </c>
@@ -2601,10 +2901,10 @@
         <v>4.347923557525038</v>
       </c>
       <c r="I50">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>3.043546490267527</v>
+        <v>4.347923557525038</v>
       </c>
       <c r="K50">
         <v>496.9169418735</v>
@@ -2616,10 +2916,16 @@
         <v>4.311351156264553</v>
       </c>
       <c r="N50">
-        <v>3.017945809385187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>4.311351156264553</v>
+      </c>
+      <c r="O50">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P50">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>42193</v>
       </c>
@@ -2645,10 +2951,10 @@
         <v>2.48587168038806</v>
       </c>
       <c r="I51">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>1.740110176271642</v>
+        <v>2.48587168038806</v>
       </c>
       <c r="K51">
         <v>300.8081127645</v>
@@ -2660,10 +2966,16 @@
         <v>2.466128673314619</v>
       </c>
       <c r="N51">
-        <v>1.726290071320234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>2.466128673314619</v>
+      </c>
+      <c r="O51">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P51">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>42194</v>
       </c>
@@ -2689,10 +3001,10 @@
         <v>3.965591222542951</v>
       </c>
       <c r="I52">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J52">
-        <v>2.775913855780066</v>
+        <v>3.965591222542951</v>
       </c>
       <c r="K52">
         <v>508.9288206329999</v>
@@ -2704,10 +3016,16 @@
         <v>3.932163273171085</v>
       </c>
       <c r="N52">
-        <v>2.75251429121976</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>3.932163273171085</v>
+      </c>
+      <c r="O52">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P52">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="2">
         <v>42195</v>
       </c>
@@ -2733,10 +3051,10 @@
         <v>5.550575166714903</v>
       </c>
       <c r="I53">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>3.885402616700432</v>
+        <v>5.550575166714903</v>
       </c>
       <c r="K53">
         <v>694.2184397955001</v>
@@ -2748,10 +3066,16 @@
         <v>5.502652009815219</v>
       </c>
       <c r="N53">
-        <v>3.851856406870653</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>5.502652009815219</v>
+      </c>
+      <c r="O53">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P53">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="2">
         <v>42196</v>
       </c>
@@ -2777,10 +3101,10 @@
         <v>5.614380604568507</v>
       </c>
       <c r="I54">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J54">
-        <v>3.930066423197955</v>
+        <v>5.614380604568507</v>
       </c>
       <c r="K54">
         <v>674.4542137515</v>
@@ -2792,10 +3116,16 @@
         <v>5.566000983771749</v>
       </c>
       <c r="N54">
-        <v>3.896200688640224</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>5.566000983771749</v>
+      </c>
+      <c r="O54">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P54">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="2">
         <v>42197</v>
       </c>
@@ -2821,10 +3151,10 @@
         <v>3.468582965786408</v>
       </c>
       <c r="I55">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>2.428008076050485</v>
+        <v>3.468582965786408</v>
       </c>
       <c r="K55">
         <v>419.9046128055</v>
@@ -2836,10 +3166,16 @@
         <v>3.439884252964534</v>
       </c>
       <c r="N55">
-        <v>2.407918977075174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>3.439884252964534</v>
+      </c>
+      <c r="O55">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P55">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="2">
         <v>42198</v>
       </c>
@@ -2865,10 +3201,10 @@
         <v>2.28118472798784</v>
       </c>
       <c r="I56">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J56">
-        <v>1.596829309591488</v>
+        <v>2.28118472798784</v>
       </c>
       <c r="K56">
         <v>246.6268724025</v>
@@ -2880,10 +3216,16 @@
         <v>2.263613190212998</v>
       </c>
       <c r="N56">
-        <v>1.584529233149098</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>2.263613190212998</v>
+      </c>
+      <c r="O56">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P56">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>42199</v>
       </c>
@@ -2909,10 +3251,10 @@
         <v>3.176639476971981</v>
       </c>
       <c r="I57">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>2.223647633880387</v>
+        <v>3.176639476971981</v>
       </c>
       <c r="K57">
         <v>364.3603223715</v>
@@ -2924,10 +3266,16 @@
         <v>3.150772385573394</v>
       </c>
       <c r="N57">
-        <v>2.205540669901376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>3.150772385573394</v>
+      </c>
+      <c r="O57">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P57">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>42200</v>
       </c>
@@ -2953,10 +3301,10 @@
         <v>4.236812068812003</v>
       </c>
       <c r="I58">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J58">
-        <v>2.965768448168402</v>
+        <v>4.236812068812003</v>
       </c>
       <c r="K58">
         <v>486.097731927</v>
@@ -2968,10 +3316,16 @@
         <v>4.201246038640629</v>
       </c>
       <c r="N58">
-        <v>2.94087222704844</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>4.201246038640629</v>
+      </c>
+      <c r="O58">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P58">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>42201</v>
       </c>
@@ -2997,10 +3351,10 @@
         <v>5.893015619857835</v>
       </c>
       <c r="I59">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J59">
-        <v>4.125110933900484</v>
+        <v>5.893015619857835</v>
       </c>
       <c r="K59">
         <v>656.0530377795</v>
@@ -3012,10 +3366,16 @@
         <v>5.842332244760255</v>
       </c>
       <c r="N59">
-        <v>4.089632571332179</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>5.842332244760255</v>
+      </c>
+      <c r="O59">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P59">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>42202</v>
       </c>
@@ -3041,10 +3401,10 @@
         <v>4.83811494187258</v>
       </c>
       <c r="I60">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>3.386680459310806</v>
+        <v>4.83811494187258</v>
       </c>
       <c r="K60">
         <v>540.1937816595001</v>
@@ -3056,10 +3416,16 @@
         <v>4.797121599459759</v>
       </c>
       <c r="N60">
-        <v>3.357985119621831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>4.797121599459759</v>
+      </c>
+      <c r="O60">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P60">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>42203</v>
       </c>
@@ -3085,10 +3451,10 @@
         <v>4.260784952088116</v>
       </c>
       <c r="I61">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>2.982549466461681</v>
+        <v>4.260784952088116</v>
       </c>
       <c r="K61">
         <v>492.1462666215</v>
@@ -3100,10 +3466,16 @@
         <v>4.224976980333372</v>
       </c>
       <c r="N61">
-        <v>2.95748388623336</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>4.224976980333372</v>
+      </c>
+      <c r="O61">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P61">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>42204</v>
       </c>
@@ -3129,10 +3501,10 @@
         <v>3.230182557987347</v>
       </c>
       <c r="I62">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J62">
-        <v>2.261127790591143</v>
+        <v>3.230182557987347</v>
       </c>
       <c r="K62">
         <v>365.3826099255</v>
@@ -3144,10 +3516,16 @@
         <v>3.203870659203958</v>
       </c>
       <c r="N62">
-        <v>2.24270946144277</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>3.203870659203958</v>
+      </c>
+      <c r="O62">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P62">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="2">
         <v>42205</v>
       </c>
@@ -3173,10 +3551,10 @@
         <v>1.701185052682019</v>
       </c>
       <c r="I63">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>1.190829536877414</v>
+        <v>1.701185052682019</v>
       </c>
       <c r="K63">
         <v>166.0365368955</v>
@@ -3188,10 +3566,16 @@
         <v>1.689065111759591</v>
       </c>
       <c r="N63">
-        <v>1.182345578231714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>1.689065111759591</v>
+      </c>
+      <c r="O63">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P63">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="2">
         <v>42206</v>
       </c>
@@ -3217,10 +3601,10 @@
         <v>3.243844972222318</v>
       </c>
       <c r="I64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>2.919460475000086</v>
+        <v>3.243844972222318</v>
       </c>
       <c r="K64">
         <v>356.267212569</v>
@@ -3232,10 +3616,16 @@
         <v>3.217502253602254</v>
       </c>
       <c r="N64">
-        <v>2.895752028242028</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>3.217502253602254</v>
+      </c>
+      <c r="O64">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P64">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="2">
         <v>42207</v>
       </c>
@@ -3261,10 +3651,10 @@
         <v>3.7680707424912</v>
       </c>
       <c r="I65">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>3.39126366824208</v>
+        <v>3.7680707424912</v>
       </c>
       <c r="K65">
         <v>436.17602304</v>
@@ -3276,10 +3666,16 @@
         <v>3.736770884024144</v>
       </c>
       <c r="N65">
-        <v>3.36309379562173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>3.736770884024144</v>
+      </c>
+      <c r="O65">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P65">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="2">
         <v>42208</v>
       </c>
@@ -3305,10 +3701,10 @@
         <v>4.406595458858659</v>
       </c>
       <c r="I66">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>3.965935912972793</v>
+        <v>4.406595458858659</v>
       </c>
       <c r="K66">
         <v>533.8896750765</v>
@@ -3320,10 +3716,16 @@
         <v>4.369295377128509</v>
       </c>
       <c r="N66">
-        <v>3.932365839415658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>4.369295377128509</v>
+      </c>
+      <c r="O66">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P66">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="2">
         <v>42209</v>
       </c>
@@ -3349,10 +3751,10 @@
         <v>3.815344467147541</v>
       </c>
       <c r="I67">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J67">
-        <v>3.433810020432787</v>
+        <v>3.815344467147541</v>
       </c>
       <c r="K67">
         <v>443.161654659</v>
@@ -3364,10 +3766,16 @@
         <v>3.783600891482163</v>
       </c>
       <c r="N67">
-        <v>3.405240802333947</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>3.783600891482163</v>
+      </c>
+      <c r="O67">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P67">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="2">
         <v>42210</v>
       </c>
@@ -3393,10 +3801,10 @@
         <v>3.47187957386848</v>
       </c>
       <c r="I68">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>3.124691616481632</v>
+        <v>3.47187957386848</v>
       </c>
       <c r="K68">
         <v>434.642591709</v>
@@ -3408,10 +3816,16 @@
         <v>3.443050430440582</v>
       </c>
       <c r="N68">
-        <v>3.098745387396524</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>3.443050430440582</v>
+      </c>
+      <c r="O68">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P68">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>42211</v>
       </c>
@@ -3437,10 +3851,10 @@
         <v>1.682421419969681</v>
       </c>
       <c r="I69">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>1.514179277972713</v>
+        <v>1.682421419969681</v>
       </c>
       <c r="K69">
         <v>200.538741843</v>
@@ -3452,10 +3866,16 @@
         <v>1.669941770887479</v>
       </c>
       <c r="N69">
-        <v>1.502947593798731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>1.669941770887479</v>
+      </c>
+      <c r="O69">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P69">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>42212</v>
       </c>
@@ -3481,10 +3901,10 @@
         <v>2.587351594601051</v>
       </c>
       <c r="I70">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>2.328616435140946</v>
+        <v>2.587351594601051</v>
       </c>
       <c r="K70">
         <v>309.4975569735</v>
@@ -3496,10 +3916,16 @@
         <v>2.56672072420674</v>
       </c>
       <c r="N70">
-        <v>2.310048651786066</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>2.56672072420674</v>
+      </c>
+      <c r="O70">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P70">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>42213</v>
       </c>
@@ -3525,10 +3951,10 @@
         <v>2.269824082630849</v>
       </c>
       <c r="I71">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>2.042841674367764</v>
+        <v>2.269824082630849</v>
       </c>
       <c r="K71">
         <v>283.0884618285</v>
@@ -3540,10 +3966,16 @@
         <v>2.251955094615214</v>
       </c>
       <c r="N71">
-        <v>2.026759585153693</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>2.251955094615214</v>
+      </c>
+      <c r="O71">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P71">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>42214</v>
       </c>
@@ -3569,10 +4001,10 @@
         <v>3.264805944405549</v>
       </c>
       <c r="I72">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>2.938325349964995</v>
+        <v>3.264805944405549</v>
       </c>
       <c r="K72">
         <v>429.190391421</v>
@@ -3584,10 +4016,16 @@
         <v>3.237731449398453</v>
       </c>
       <c r="N72">
-        <v>2.913958304458608</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>3.237731449398453</v>
+      </c>
+      <c r="O72">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P72">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="2">
         <v>42215</v>
       </c>
@@ -3613,10 +4051,10 @@
         <v>3.535967891447941</v>
       </c>
       <c r="I73">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>3.182371102303147</v>
+        <v>3.535967891447941</v>
       </c>
       <c r="K73">
         <v>472.9783749840001</v>
@@ -3628,10 +4066,16 @@
         <v>3.506361066176019</v>
       </c>
       <c r="N73">
-        <v>3.155724959558417</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>3.506361066176019</v>
+      </c>
+      <c r="O73">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P73">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="2">
         <v>42216</v>
       </c>
@@ -3657,10 +4101,10 @@
         <v>4.506046117768801</v>
       </c>
       <c r="I74">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>4.731348423657241</v>
+        <v>4.506046117768801</v>
       </c>
       <c r="K74">
         <v>608.772238407</v>
@@ -3672,10 +4116,16 @@
         <v>4.467501661415954</v>
       </c>
       <c r="N74">
-        <v>4.690876744486752</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>4.467501661415954</v>
+      </c>
+      <c r="O74">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P74">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="2">
         <v>42217</v>
       </c>
@@ -3701,10 +4151,10 @@
         <v>4.929732026182196</v>
       </c>
       <c r="I75">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>5.176218627491306</v>
+        <v>4.929732026182196</v>
       </c>
       <c r="K75">
         <v>622.3175484975</v>
@@ -3716,10 +4166,16 @@
         <v>4.887494204952255</v>
       </c>
       <c r="N75">
-        <v>5.131868915199868</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>4.887494204952255</v>
+      </c>
+      <c r="O75">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P75">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="2">
         <v>42218</v>
       </c>
@@ -3745,10 +4201,10 @@
         <v>5.233516609375464</v>
       </c>
       <c r="I76">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>5.495192439844237</v>
+        <v>5.233516609375464</v>
       </c>
       <c r="K76">
         <v>636.033239847</v>
@@ -3760,10 +4216,16 @@
         <v>5.188604559363276</v>
       </c>
       <c r="N76">
-        <v>5.448034787331441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>5.188604559363276</v>
+      </c>
+      <c r="O76">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P76">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="2">
         <v>42219</v>
       </c>
@@ -3806,8 +4268,14 @@
       <c r="N77">
         <v>5.31367305598834</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P77">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="2">
         <v>42220</v>
       </c>
@@ -3850,8 +4318,14 @@
       <c r="N78">
         <v>4.22040213010011</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P78">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="2">
         <v>42221</v>
       </c>
@@ -3894,8 +4368,14 @@
       <c r="N79">
         <v>4.885315833561844</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P79">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="2">
         <v>42222</v>
       </c>
@@ -3938,8 +4418,14 @@
       <c r="N80">
         <v>5.097731940191111</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P80">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="2">
         <v>42223</v>
       </c>
@@ -3982,8 +4468,14 @@
       <c r="N81">
         <v>4.285121483869872</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P81">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="2">
         <v>42224</v>
       </c>
@@ -4026,8 +4518,14 @@
       <c r="N82">
         <v>3.821142459971757</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P82">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="2">
         <v>42225</v>
       </c>
@@ -4070,8 +4568,14 @@
       <c r="N83">
         <v>1.891360693128664</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P83">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="2">
         <v>42226</v>
       </c>
@@ -4114,8 +4618,14 @@
       <c r="N84">
         <v>3.965131384195644</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P84">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="2">
         <v>42227</v>
       </c>
@@ -4141,10 +4651,10 @@
         <v>3.929183914695377</v>
       </c>
       <c r="I85">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J85">
-        <v>3.143347131756302</v>
+        <v>2.750428740286764</v>
       </c>
       <c r="K85">
         <v>444.183942213</v>
@@ -4156,10 +4666,16 @@
         <v>3.896485631153042</v>
       </c>
       <c r="N85">
-        <v>3.117188504922434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>2.727539941807129</v>
+      </c>
+      <c r="O85">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P85">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="2">
         <v>42228</v>
       </c>
@@ -4185,10 +4701,10 @@
         <v>4.810326849416058</v>
       </c>
       <c r="I86">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J86">
-        <v>3.848261479532847</v>
+        <v>3.367228794591241</v>
       </c>
       <c r="K86">
         <v>527.7559497525</v>
@@ -4200,10 +4716,16 @@
         <v>4.769649482993267</v>
       </c>
       <c r="N86">
-        <v>3.815719586394614</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>3.338754638095287</v>
+      </c>
+      <c r="O86">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P86">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="2">
         <v>42229</v>
       </c>
@@ -4229,10 +4751,10 @@
         <v>3.216434633553691</v>
       </c>
       <c r="I87">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J87">
-        <v>2.573147706842953</v>
+        <v>2.251504243487584</v>
       </c>
       <c r="K87">
         <v>344.2553338095</v>
@@ -4244,10 +4766,16 @@
         <v>3.190425293562447</v>
       </c>
       <c r="N87">
-        <v>2.552340234849958</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>2.233297705493713</v>
+      </c>
+      <c r="O87">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P87">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="2">
         <v>42230</v>
       </c>
@@ -4273,10 +4801,10 @@
         <v>3.112298682032323</v>
       </c>
       <c r="I88">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J88">
-        <v>2.489838945625858</v>
+        <v>2.178609077422626</v>
       </c>
       <c r="K88">
         <v>362.741700411</v>
@@ -4288,10 +4816,16 @@
         <v>3.086969039490127</v>
       </c>
       <c r="N88">
-        <v>2.469575231592102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>2.160878327643089</v>
+      </c>
+      <c r="O88">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P88">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="2">
         <v>42231</v>
       </c>
@@ -4317,10 +4851,10 @@
         <v>2.848256959387755</v>
       </c>
       <c r="I89">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J89">
-        <v>2.278605567510204</v>
+        <v>1.993779871571429</v>
       </c>
       <c r="K89">
         <v>351.837299835</v>
@@ -4332,10 +4866,16 @@
         <v>2.825162240676683</v>
       </c>
       <c r="N89">
-        <v>2.260129792541347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>1.977613568473678</v>
+      </c>
+      <c r="O89">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P89">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="2">
         <v>42232</v>
       </c>
@@ -4361,10 +4901,10 @@
         <v>2.45454306935363</v>
       </c>
       <c r="I90">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J90">
-        <v>1.963634455482904</v>
+        <v>1.718180148547541</v>
       </c>
       <c r="K90">
         <v>302.3415440955</v>
@@ -4376,10 +4916,16 @@
         <v>2.435034886711524</v>
       </c>
       <c r="N90">
-        <v>1.948027909369219</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>1.704524420698067</v>
+      </c>
+      <c r="O90">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P90">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="2">
         <v>42233</v>
       </c>
@@ -4405,10 +4951,10 @@
         <v>2.805916298735632</v>
       </c>
       <c r="I91">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J91">
-        <v>2.244733038988506</v>
+        <v>1.964141409114942</v>
       </c>
       <c r="K91">
         <v>346.2999089175</v>
@@ -4420,10 +4966,16 @@
         <v>2.783209705156235</v>
       </c>
       <c r="N91">
-        <v>2.226567764124988</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>1.948246793609365</v>
+      </c>
+      <c r="O91">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P91">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="2">
         <v>42234</v>
       </c>
@@ -4449,10 +5001,10 @@
         <v>2.768322892725848</v>
       </c>
       <c r="I92">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J92">
-        <v>2.214658314180679</v>
+        <v>1.937826024908094</v>
       </c>
       <c r="K92">
         <v>348.5148652845</v>
@@ -4464,10 +5016,16 @@
         <v>2.745902687952469</v>
       </c>
       <c r="N92">
-        <v>2.196722150361975</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
+        <v>1.922131881566728</v>
+      </c>
+      <c r="O92">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P92">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="2">
         <v>42235</v>
       </c>
@@ -4493,10 +5051,10 @@
         <v>3.427480728204379</v>
       </c>
       <c r="I93">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J93">
-        <v>2.741984582563504</v>
+        <v>2.399236509743065</v>
       </c>
       <c r="K93">
         <v>415.219128183</v>
@@ -4508,10 +5066,16 @@
         <v>3.399155819789657</v>
       </c>
       <c r="N93">
-        <v>2.719324655831726</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>2.37940907385276</v>
+      </c>
+      <c r="O93">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P93">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="2">
         <v>42236</v>
       </c>
@@ -4537,10 +5101,10 @@
         <v>2.185639776345483</v>
       </c>
       <c r="I94">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J94">
-        <v>1.748511821076387</v>
+        <v>1.529947843441838</v>
       </c>
       <c r="K94">
         <v>247.3083974385</v>
@@ -4552,10 +5116,16 @@
         <v>2.168796439634573</v>
       </c>
       <c r="N94">
-        <v>1.735037151707659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>1.518157507744201</v>
+      </c>
+      <c r="O94">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P94">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="2">
         <v>42237</v>
       </c>
@@ -4581,10 +5151,10 @@
         <v>4.347460880173629</v>
       </c>
       <c r="I95">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J95">
-        <v>3.477968704138903</v>
+        <v>3.04322261612154</v>
       </c>
       <c r="K95">
         <v>507.6509611905</v>
@@ -4596,10 +5166,16 @@
         <v>4.310822141494359</v>
       </c>
       <c r="N95">
-        <v>3.448657713195487</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>3.017575499046051</v>
+      </c>
+      <c r="O95">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P95">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="2">
         <v>42238</v>
       </c>
@@ -4625,10 +5201,10 @@
         <v>4.78309551707317</v>
       </c>
       <c r="I96">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J96">
-        <v>3.826476413658536</v>
+        <v>3.348166861951219</v>
       </c>
       <c r="K96">
         <v>548.286891462</v>
@@ -4640,10 +5216,16 @@
         <v>4.742518042076829</v>
       </c>
       <c r="N96">
-        <v>3.794014433661463</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>3.31976262945378</v>
+      </c>
+      <c r="O96">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P96">
+        <v>1.77371166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="2">
         <v>42239</v>
       </c>
@@ -4669,10 +5251,10 @@
         <v>2.006372039078385</v>
       </c>
       <c r="I97">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J97">
-        <v>1.605097631262708</v>
+        <v>1.404460427354869</v>
       </c>
       <c r="K97">
         <v>217.576867743</v>
@@ -4684,7 +5266,13 @@
         <v>1.991254932633774</v>
       </c>
       <c r="N97">
-        <v>1.593003946107019</v>
+        <v>1.393878452843642</v>
+      </c>
+      <c r="O97">
+        <v>0.5912372199999999</v>
+      </c>
+      <c r="P97">
+        <v>1.77371166</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>temperature_2m</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>capacité au champs</t>
+  </si>
+  <si>
+    <t>eau_utile</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
 </sst>
 </file>
@@ -422,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +480,14 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="2">
         <v>42144</v>
       </c>
@@ -507,25 +519,31 @@
         <v>1.668076567002967</v>
       </c>
       <c r="K2">
-        <v>575.88865542</v>
+        <v>439.29129582</v>
       </c>
       <c r="L2">
         <v>10.275</v>
       </c>
       <c r="M2">
-        <v>3.30773796825822</v>
+        <v>2.585839162775727</v>
       </c>
       <c r="N2">
-        <v>1.65386898412911</v>
+        <v>1.292919581387864</v>
       </c>
       <c r="O2">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P2">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q2">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="2">
         <v>42145</v>
       </c>
@@ -557,25 +575,31 @@
         <v>1.497275857323488</v>
       </c>
       <c r="K3">
-        <v>472.2116593185</v>
+        <v>360.2058657885</v>
       </c>
       <c r="L3">
         <v>11.6625</v>
       </c>
       <c r="M3">
-        <v>2.969482051511526</v>
+        <v>2.332577096178488</v>
       </c>
       <c r="N3">
-        <v>1.484741025755763</v>
+        <v>1.166288548089244</v>
       </c>
       <c r="O3">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P3">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q3">
+        <v>66.83292343299703</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>42146</v>
       </c>
@@ -607,25 +631,31 @@
         <v>1.907686821737968</v>
       </c>
       <c r="K4">
-        <v>575.4627022725</v>
+        <v>438.9663762225</v>
       </c>
       <c r="L4">
         <v>13.05</v>
       </c>
       <c r="M4">
-        <v>3.782878696632072</v>
+        <v>2.957331398436617</v>
       </c>
       <c r="N4">
-        <v>1.891439348316036</v>
+        <v>1.478665699218309</v>
       </c>
       <c r="O4">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P4">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q4">
+        <v>65.43564757567354</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>42147</v>
       </c>
@@ -657,25 +687,31 @@
         <v>1.49988323409613</v>
       </c>
       <c r="K5">
-        <v>407.1260183805</v>
+        <v>310.5581512905</v>
       </c>
       <c r="L5">
         <v>15.0375</v>
       </c>
       <c r="M5">
-        <v>2.97502863148258</v>
+        <v>2.346553861020445</v>
       </c>
       <c r="N5">
-        <v>1.48751431574129</v>
+        <v>1.173276930510222</v>
       </c>
       <c r="O5">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P5">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q5">
+        <v>63.52796075393557</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>42148</v>
       </c>
@@ -707,25 +743,31 @@
         <v>1.9160107227843</v>
       </c>
       <c r="K6">
-        <v>532.6970062635</v>
+        <v>406.3444486335001</v>
       </c>
       <c r="L6">
         <v>15.09583333333333</v>
       </c>
       <c r="M6">
-        <v>3.799591069916183</v>
+        <v>2.975684229016921</v>
       </c>
       <c r="N6">
-        <v>1.899795534958091</v>
+        <v>1.48784211450846</v>
       </c>
       <c r="O6">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P6">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q6">
+        <v>62.02807751983944</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>42149</v>
       </c>
@@ -757,25 +799,31 @@
         <v>1.229455357220963</v>
       </c>
       <c r="K7">
-        <v>332.8397894565</v>
+        <v>253.8921734865</v>
       </c>
       <c r="L7">
         <v>14.41666666666667</v>
       </c>
       <c r="M7">
-        <v>2.439112426310676</v>
+        <v>1.936128890003225</v>
       </c>
       <c r="N7">
-        <v>1.219556213155338</v>
+        <v>0.9680644450016125</v>
       </c>
       <c r="O7">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P7">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q7">
+        <v>60.11206679705514</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>42150</v>
       </c>
@@ -807,25 +855,31 @@
         <v>1.099722370583236</v>
       </c>
       <c r="K8">
-        <v>302.5119253545</v>
+        <v>230.7578981445</v>
       </c>
       <c r="L8">
         <v>13.63333333333333</v>
       </c>
       <c r="M8">
-        <v>2.181962639243162</v>
+        <v>1.737822752542848</v>
       </c>
       <c r="N8">
-        <v>1.090981319621581</v>
+        <v>0.868911376271424</v>
       </c>
       <c r="O8">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P8">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q8">
+        <v>60.48261143983418</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>42151</v>
       </c>
@@ -857,25 +911,31 @@
         <v>2.11465932726087</v>
       </c>
       <c r="K9">
-        <v>597.2715034245</v>
+        <v>455.6022596145</v>
       </c>
       <c r="L9">
         <v>14.9</v>
       </c>
       <c r="M9">
-        <v>4.193193652619588</v>
+        <v>3.27542333402437</v>
       </c>
       <c r="N9">
-        <v>2.096596826309794</v>
+        <v>1.637711667012185</v>
       </c>
       <c r="O9">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P9">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q9">
+        <v>59.38288906925094</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="2">
         <v>42152</v>
       </c>
@@ -907,25 +967,31 @@
         <v>1.747003020921905</v>
       </c>
       <c r="K10">
-        <v>481.4122473045</v>
+        <v>367.2241290945</v>
       </c>
       <c r="L10">
         <v>15.09166666666667</v>
       </c>
       <c r="M10">
-        <v>3.464701893738532</v>
+        <v>2.720218131063919</v>
       </c>
       <c r="N10">
-        <v>1.732350946869266</v>
+        <v>1.36010906553196</v>
       </c>
       <c r="O10">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P10">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q10">
+        <v>57.26822974199008</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="2">
         <v>42153</v>
       </c>
@@ -957,25 +1023,31 @@
         <v>1.176072524834532</v>
       </c>
       <c r="K11">
-        <v>322.361342028</v>
+        <v>245.899151388</v>
       </c>
       <c r="L11">
         <v>13.95833333333333</v>
       </c>
       <c r="M11">
-        <v>2.333285819470417</v>
+        <v>1.854159430639914</v>
       </c>
       <c r="N11">
-        <v>1.166642909735208</v>
+        <v>0.9270797153199568</v>
       </c>
       <c r="O11">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P11">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q11">
+        <v>55.52122672106817</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="2">
         <v>42154</v>
       </c>
@@ -1007,25 +1079,31 @@
         <v>1.823984767388489</v>
       </c>
       <c r="K12">
-        <v>527.2448059755</v>
+        <v>402.1854777855</v>
       </c>
       <c r="L12">
         <v>13.95833333333333</v>
       </c>
       <c r="M12">
-        <v>3.617123928091082</v>
+        <v>2.833478785260219</v>
       </c>
       <c r="N12">
-        <v>1.808561964045541</v>
+        <v>1.41673939263011</v>
       </c>
       <c r="O12">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P12">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q12">
+        <v>55.54515419623365</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="2">
         <v>42155</v>
       </c>
@@ -1057,25 +1135,31 @@
         <v>0.6128773982776204</v>
       </c>
       <c r="K13">
-        <v>141.075682452</v>
+        <v>107.613370692</v>
       </c>
       <c r="L13">
         <v>14.41666666666667</v>
       </c>
       <c r="M13">
-        <v>1.217363200664442</v>
+        <v>1.004171305060363</v>
       </c>
       <c r="N13">
-        <v>0.6086816003322211</v>
+        <v>0.5020856525301813</v>
       </c>
       <c r="O13">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P13">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q13">
+        <v>53.72116942884516</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="2">
         <v>42156</v>
       </c>
@@ -1107,25 +1191,31 @@
         <v>1.826755715514506</v>
       </c>
       <c r="K14">
-        <v>550.0758946815</v>
+        <v>419.6011682115</v>
       </c>
       <c r="L14">
         <v>13.00416666666667</v>
       </c>
       <c r="M14">
-        <v>3.622508447390641</v>
+        <v>2.834865079280641</v>
       </c>
       <c r="N14">
-        <v>1.811254223695321</v>
+        <v>1.41743253964032</v>
       </c>
       <c r="O14">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P14">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q14">
+        <v>58.80829203056754</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="2">
         <v>42157</v>
       </c>
@@ -1157,25 +1247,31 @@
         <v>1.478213269731903</v>
       </c>
       <c r="K15">
-        <v>385.913551635</v>
+        <v>294.377155335</v>
       </c>
       <c r="L15">
         <v>16.08333333333333</v>
       </c>
       <c r="M15">
-        <v>2.932190619442935</v>
+        <v>2.316467245939718</v>
       </c>
       <c r="N15">
-        <v>1.466095309721468</v>
+        <v>1.158233622969859</v>
       </c>
       <c r="O15">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P15">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q15">
+        <v>57.28153631505303</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2">
         <v>42158</v>
       </c>
@@ -1207,25 +1303,31 @@
         <v>1.455576550910629</v>
       </c>
       <c r="K16">
-        <v>373.816482246</v>
+        <v>285.149438766</v>
       </c>
       <c r="L16">
         <v>16.51666666666667</v>
       </c>
       <c r="M16">
-        <v>2.88737585445543</v>
+        <v>2.283305245701944</v>
       </c>
       <c r="N16">
-        <v>1.443687927227715</v>
+        <v>1.141652622850972</v>
       </c>
       <c r="O16">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P16">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q16">
+        <v>56.00332304532113</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2">
         <v>42159</v>
       </c>
@@ -1257,25 +1359,31 @@
         <v>2.573709271531944</v>
       </c>
       <c r="K17">
-        <v>673.2615449384999</v>
+        <v>513.5679158084999</v>
       </c>
       <c r="L17">
         <v>17.80416666666667</v>
       </c>
       <c r="M17">
-        <v>5.103068151884762</v>
+        <v>3.976328484090736</v>
       </c>
       <c r="N17">
-        <v>2.551534075942381</v>
+        <v>1.988164242045368</v>
       </c>
       <c r="O17">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P17">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q17">
+        <v>54.5477464944105</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2">
         <v>42160</v>
       </c>
@@ -1307,25 +1415,31 @@
         <v>2.502281206457694</v>
       </c>
       <c r="K18">
-        <v>585.8559590714999</v>
+        <v>446.8944144014999</v>
       </c>
       <c r="L18">
         <v>22.525</v>
       </c>
       <c r="M18">
-        <v>4.961879312861077</v>
+        <v>3.877497852021831</v>
       </c>
       <c r="N18">
-        <v>2.480939656430539</v>
+        <v>1.938748926010916</v>
       </c>
       <c r="O18">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P18">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q18">
+        <v>51.97403722287856</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2">
         <v>42161</v>
       </c>
@@ -1357,25 +1471,31 @@
         <v>2.499100656623064</v>
       </c>
       <c r="K19">
-        <v>678.287792079</v>
+        <v>517.4019670590001</v>
       </c>
       <c r="L19">
         <v>16.47083333333333</v>
       </c>
       <c r="M19">
-        <v>4.955114702389479</v>
+        <v>3.860481886031372</v>
       </c>
       <c r="N19">
-        <v>2.47755735119474</v>
+        <v>1.930240943015686</v>
       </c>
       <c r="O19">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P19">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q19">
+        <v>52.47175601642086</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2">
         <v>42162</v>
       </c>
@@ -1407,25 +1527,31 @@
         <v>2.465936874515706</v>
       </c>
       <c r="K20">
-        <v>689.873717691</v>
+        <v>526.239780111</v>
       </c>
       <c r="L20">
         <v>15.50833333333333</v>
       </c>
       <c r="M20">
-        <v>4.889310257333615</v>
+        <v>3.807967495281459</v>
       </c>
       <c r="N20">
-        <v>2.444655128666807</v>
+        <v>1.90398374764073</v>
       </c>
       <c r="O20">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P20">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q20">
+        <v>49.9726553597978</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2">
         <v>42163</v>
       </c>
@@ -1457,25 +1583,31 @@
         <v>2.456821445</v>
       </c>
       <c r="K21">
-        <v>699.415068195</v>
+        <v>533.517979095</v>
       </c>
       <c r="L21">
         <v>15</v>
       </c>
       <c r="M21">
-        <v>4.8711979432675</v>
+        <v>3.7928668641175</v>
       </c>
       <c r="N21">
-        <v>2.43559897163375</v>
+        <v>1.89643343205875</v>
       </c>
       <c r="O21">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P21">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q21">
+        <v>47.50671848528209</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2">
         <v>42164</v>
       </c>
@@ -1507,25 +1639,31 @@
         <v>1.764027819555401</v>
       </c>
       <c r="K22">
-        <v>490.7832165495</v>
+        <v>374.3723602395</v>
       </c>
       <c r="L22">
         <v>14.85833333333333</v>
       </c>
       <c r="M22">
-        <v>3.498413110912884</v>
+        <v>2.74533266480362</v>
       </c>
       <c r="N22">
-        <v>1.749206555456442</v>
+        <v>1.37266633240181</v>
       </c>
       <c r="O22">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P22">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q22">
+        <v>45.04989704028209</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2">
         <v>42165</v>
       </c>
@@ -1557,25 +1695,31 @@
         <v>1.902575973360406</v>
       </c>
       <c r="K23">
-        <v>496.1502262079999</v>
+        <v>378.466347168</v>
       </c>
       <c r="L23">
         <v>17.0125</v>
       </c>
       <c r="M23">
-        <v>3.773149532330395</v>
+        <v>2.960115220790091</v>
       </c>
       <c r="N23">
-        <v>1.886574766165197</v>
+        <v>1.480057610395045</v>
       </c>
       <c r="O23">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P23">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q23">
+        <v>43.28586922072669</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2">
         <v>42166</v>
       </c>
@@ -1607,25 +1751,31 @@
         <v>2.707552159952733</v>
       </c>
       <c r="K24">
-        <v>648.8118342720001</v>
+        <v>494.917530912</v>
       </c>
       <c r="L24">
         <v>21.67083333333333</v>
       </c>
       <c r="M24">
-        <v>5.368567725330387</v>
+        <v>4.186286673963534</v>
       </c>
       <c r="N24">
-        <v>2.684283862665194</v>
+        <v>2.093143336981767</v>
       </c>
       <c r="O24">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P24">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q24">
+        <v>41.38329324736628</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2">
         <v>42167</v>
       </c>
@@ -1657,25 +1807,31 @@
         <v>2.091233671158649</v>
       </c>
       <c r="K25">
-        <v>490.1868821429999</v>
+        <v>373.917472803</v>
       </c>
       <c r="L25">
         <v>21.6375</v>
       </c>
       <c r="M25">
-        <v>4.147330402205365</v>
+        <v>3.254662193956297</v>
       </c>
       <c r="N25">
-        <v>2.073665201102683</v>
+        <v>1.627331096978148</v>
       </c>
       <c r="O25">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P25">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q25">
+        <v>39.67574108741355</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="2">
         <v>42168</v>
       </c>
@@ -1707,25 +1863,31 @@
         <v>2.570683180300288</v>
       </c>
       <c r="K26">
-        <v>641.655821394</v>
+        <v>489.4588816739999</v>
       </c>
       <c r="L26">
         <v>19.63333333333333</v>
       </c>
       <c r="M26">
-        <v>5.097217155355012</v>
+        <v>3.975588697764983</v>
       </c>
       <c r="N26">
-        <v>2.548608577677506</v>
+        <v>1.987794348882491</v>
       </c>
       <c r="O26">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P26">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q26">
+        <v>38.6845074162549</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="2">
         <v>42169</v>
       </c>
@@ -1757,25 +1919,31 @@
         <v>1.658541835456221</v>
       </c>
       <c r="K27">
-        <v>408.744640341</v>
+        <v>311.792845761</v>
       </c>
       <c r="L27">
         <v>18.45416666666667</v>
       </c>
       <c r="M27">
-        <v>3.289717294421941</v>
+        <v>2.594463405203774</v>
       </c>
       <c r="N27">
-        <v>1.64485864721097</v>
+        <v>1.297231702601887</v>
       </c>
       <c r="O27">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P27">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q27">
+        <v>36.11382423595462</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="2">
         <v>42170</v>
       </c>
@@ -1807,25 +1975,31 @@
         <v>1.336076125998718</v>
       </c>
       <c r="K28">
-        <v>328.7506392405</v>
+        <v>250.7729453505</v>
       </c>
       <c r="L28">
         <v>17.49166666666667</v>
       </c>
       <c r="M28">
-        <v>2.650671631945505</v>
+        <v>2.104947771166733</v>
       </c>
       <c r="N28">
-        <v>1.325335815972752</v>
+        <v>1.052473885583367</v>
       </c>
       <c r="O28">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P28">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q28">
+        <v>34.6552824004984</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="2">
         <v>42171</v>
       </c>
@@ -1857,25 +2031,31 @@
         <v>2.414306868258944</v>
       </c>
       <c r="K29">
-        <v>647.108021682</v>
+        <v>493.617852522</v>
       </c>
       <c r="L29">
         <v>16.79583333333333</v>
       </c>
       <c r="M29">
-        <v>4.787125102896324</v>
+        <v>3.73308954602416</v>
       </c>
       <c r="N29">
-        <v>2.393562551448162</v>
+        <v>1.86654477301208</v>
       </c>
       <c r="O29">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P29">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q29">
+        <v>33.41920627449969</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="2">
         <v>42172</v>
       </c>
@@ -1907,25 +2087,31 @@
         <v>2.289295532667091</v>
       </c>
       <c r="K30">
-        <v>594.63059391</v>
+        <v>453.58775811</v>
       </c>
       <c r="L30">
         <v>17.72916666666667</v>
       </c>
       <c r="M30">
-        <v>4.539496028279013</v>
+        <v>3.546270762553107</v>
       </c>
       <c r="N30">
-        <v>2.269748014139506</v>
+        <v>1.773135381276553</v>
       </c>
       <c r="O30">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P30">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q30">
+        <v>31.00489940624074</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2">
         <v>42173</v>
       </c>
@@ -1957,25 +2143,31 @@
         <v>0.6081444581558441</v>
       </c>
       <c r="K31">
-        <v>124.548700329</v>
+        <v>95.006490309</v>
       </c>
       <c r="L31">
         <v>17.08333333333333</v>
       </c>
       <c r="M31">
-        <v>1.208239704874766</v>
+        <v>1.003746225125935</v>
       </c>
       <c r="N31">
-        <v>0.604119852437383</v>
+        <v>0.5018731125629675</v>
       </c>
       <c r="O31">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P31">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q31">
+        <v>28.71560387357365</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="2">
         <v>42174</v>
       </c>
@@ -2007,25 +2199,31 @@
         <v>2.131387596174146</v>
       </c>
       <c r="K32">
-        <v>577.933230528</v>
+        <v>440.850909888</v>
       </c>
       <c r="L32">
         <v>16.10416666666667</v>
       </c>
       <c r="M32">
-        <v>4.226457490673726</v>
+        <v>3.303791556238789</v>
       </c>
       <c r="N32">
-        <v>2.113228745336863</v>
+        <v>1.651895778119395</v>
       </c>
       <c r="O32">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P32">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q32">
+        <v>31.00745941541781</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="2">
         <v>42175</v>
       </c>
@@ -2057,25 +2255,31 @@
         <v>1.316486021345971</v>
       </c>
       <c r="K33">
-        <v>331.9026925319999</v>
+        <v>253.177350372</v>
       </c>
       <c r="L33">
         <v>16.65</v>
       </c>
       <c r="M33">
-        <v>2.611780025230692</v>
+        <v>2.073388230269175</v>
       </c>
       <c r="N33">
-        <v>1.305890012615346</v>
+        <v>1.036694115134588</v>
       </c>
       <c r="O33">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P33">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q33">
+        <v>29.07607181924366</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="2">
         <v>42176</v>
       </c>
@@ -2107,25 +2311,31 @@
         <v>3.174245326051967</v>
       </c>
       <c r="K34">
-        <v>397.2439053584999</v>
+        <v>303.0200166284999</v>
       </c>
       <c r="L34">
         <v>17.7125</v>
       </c>
       <c r="M34">
-        <v>3.148139083152055</v>
+        <v>2.484899398667786</v>
       </c>
       <c r="N34">
-        <v>3.148139083152055</v>
+        <v>2.484899398667786</v>
       </c>
       <c r="O34">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P34">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q34">
+        <v>27.75958579789769</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="2">
         <v>42177</v>
       </c>
@@ -2157,25 +2367,31 @@
         <v>1.420815618775717</v>
       </c>
       <c r="K35">
-        <v>169.6145433345</v>
+        <v>129.3829837245</v>
       </c>
       <c r="L35">
         <v>14.65</v>
       </c>
       <c r="M35">
-        <v>1.410643837371181</v>
+        <v>1.152225607093795</v>
       </c>
       <c r="N35">
-        <v>1.410643837371181</v>
+        <v>1.152225607093795</v>
       </c>
       <c r="O35">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P35">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q35">
+        <v>25.68534047184572</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="2">
         <v>42178</v>
       </c>
@@ -2207,25 +2423,31 @@
         <v>3.213803661164329</v>
       </c>
       <c r="K36">
-        <v>445.035848508</v>
+        <v>339.475995468</v>
       </c>
       <c r="L36">
         <v>14.71666666666667</v>
       </c>
       <c r="M36">
-        <v>3.187053564230696</v>
+        <v>2.507456506997853</v>
       </c>
       <c r="N36">
-        <v>3.187053564230696</v>
+        <v>2.507456506997853</v>
       </c>
       <c r="O36">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P36">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q36">
+        <v>25.46452485307001</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="2">
         <v>42179</v>
       </c>
@@ -2257,25 +2479,31 @@
         <v>4.590574736959907</v>
       </c>
       <c r="K37">
-        <v>606.9832351875</v>
+        <v>463.0104264375</v>
       </c>
       <c r="L37">
         <v>17.1125</v>
       </c>
       <c r="M37">
-        <v>4.551315934850892</v>
+        <v>3.55393015154075</v>
       </c>
       <c r="N37">
-        <v>4.551315934850892</v>
+        <v>3.55393015154075</v>
       </c>
       <c r="O37">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P37">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q37">
+        <v>24.85069119413518</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="2">
         <v>42180</v>
       </c>
@@ -2307,25 +2535,31 @@
         <v>5.490493998484458</v>
       </c>
       <c r="K38">
-        <v>665.0832445065</v>
+        <v>507.3294595365</v>
       </c>
       <c r="L38">
         <v>21.19166666666667</v>
       </c>
       <c r="M38">
-        <v>5.443227487943906</v>
+        <v>4.24240262556232</v>
       </c>
       <c r="N38">
-        <v>5.443227487943906</v>
+        <v>4.24240262556232</v>
       </c>
       <c r="O38">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P38">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q38">
+        <v>22.08204109447869</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="2">
         <v>42181</v>
       </c>
@@ -2357,25 +2591,31 @@
         <v>5.21362653056338</v>
       </c>
       <c r="K39">
-        <v>601.8717974175</v>
+        <v>459.1113912675</v>
       </c>
       <c r="L39">
         <v>23.45833333333333</v>
       </c>
       <c r="M39">
-        <v>5.169067914733134</v>
+        <v>4.037038215262007</v>
       </c>
       <c r="N39">
-        <v>5.169067914733134</v>
+        <v>4.037038215262007</v>
       </c>
       <c r="O39">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P39">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q39">
+        <v>16.06885388202174</v>
+      </c>
+      <c r="R39">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="2">
         <v>42182</v>
       </c>
@@ -2407,25 +2647,31 @@
         <v>4.490837873409825</v>
       </c>
       <c r="K40">
-        <v>551.183372865</v>
+        <v>420.445959165</v>
       </c>
       <c r="L40">
         <v>19.8625</v>
       </c>
       <c r="M40">
-        <v>4.452723174353642</v>
+        <v>3.484403792926284</v>
       </c>
       <c r="N40">
-        <v>4.452723174353642</v>
+        <v>3.484403792926284</v>
       </c>
       <c r="O40">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P40">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q40">
+        <v>26.05544957368058</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="2">
         <v>42183</v>
       </c>
@@ -2457,25 +2703,31 @@
         <v>5.532581356981726</v>
       </c>
       <c r="K41">
-        <v>669.6835384994999</v>
+        <v>510.8385911895</v>
       </c>
       <c r="L41">
         <v>21.25416666666667</v>
       </c>
       <c r="M41">
-        <v>5.48492983433138</v>
+        <v>4.274323583214494</v>
       </c>
       <c r="N41">
-        <v>5.48492983433138</v>
+        <v>4.274323583214494</v>
       </c>
       <c r="O41">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P41">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q41">
+        <v>24.64330869720064</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="2">
         <v>42184</v>
       </c>
@@ -2507,25 +2759,31 @@
         <v>5.612106909410137</v>
       </c>
       <c r="K42">
-        <v>681.2694641115</v>
+        <v>519.6764042415</v>
       </c>
       <c r="L42">
         <v>21.16666666666667</v>
       </c>
       <c r="M42">
-        <v>5.563713756903624</v>
+        <v>4.33426609863003</v>
       </c>
       <c r="N42">
-        <v>5.563713756903624</v>
+        <v>4.33426609863003</v>
       </c>
       <c r="O42">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P42">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q42">
+        <v>20.65546789987194</v>
+      </c>
+      <c r="R42">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="2">
         <v>42185</v>
       </c>
@@ -2557,25 +2815,31 @@
         <v>6.021827360563409</v>
       </c>
       <c r="K43">
-        <v>690.4700520975</v>
+        <v>526.6946675475</v>
       </c>
       <c r="L43">
         <v>24.49166666666666</v>
       </c>
       <c r="M43">
-        <v>5.969854247834814</v>
+        <v>4.649456248783991</v>
       </c>
       <c r="N43">
-        <v>5.969854247834814</v>
+        <v>4.649456248783991</v>
       </c>
       <c r="O43">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P43">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q43">
+        <v>30.24358321268402</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="2">
         <v>42186</v>
       </c>
@@ -2607,25 +2871,31 @@
         <v>6.233663307966014</v>
       </c>
       <c r="K44">
-        <v>670.109491647</v>
+        <v>511.163510787</v>
       </c>
       <c r="L44">
         <v>29.1375</v>
       </c>
       <c r="M44">
-        <v>6.179971091866054</v>
+        <v>4.815898574731934</v>
       </c>
       <c r="N44">
-        <v>6.179971091866054</v>
+        <v>4.815898574731934</v>
       </c>
       <c r="O44">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P44">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q44">
+        <v>24.22175585212061</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="2">
         <v>42187</v>
       </c>
@@ -2657,25 +2927,31 @@
         <v>5.111098212268947</v>
       </c>
       <c r="K45">
-        <v>565.5805892505</v>
+        <v>431.4282415605</v>
       </c>
       <c r="L45">
         <v>25.9</v>
       </c>
       <c r="M45">
-        <v>5.067627980455828</v>
+        <v>3.963249118176536</v>
       </c>
       <c r="N45">
-        <v>5.067627980455828</v>
+        <v>3.963249118176536</v>
       </c>
       <c r="O45">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P45">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q45">
+        <v>20.06561743761519</v>
+      </c>
+      <c r="R45">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="2">
         <v>42188</v>
       </c>
@@ -2707,25 +2983,31 @@
         <v>5.873929954059493</v>
       </c>
       <c r="K46">
-        <v>653.241747006</v>
+        <v>498.296694726</v>
       </c>
       <c r="L46">
         <v>26.32083333333334</v>
       </c>
       <c r="M46">
-        <v>5.823425986274047</v>
+        <v>4.540352210103241</v>
       </c>
       <c r="N46">
-        <v>5.823425986274047</v>
+        <v>4.540352210103241</v>
       </c>
       <c r="O46">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P46">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q46">
+        <v>30.35474144756846</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="2">
         <v>42189</v>
       </c>
@@ -2757,25 +3039,31 @@
         <v>5.445451756425532</v>
       </c>
       <c r="K47">
-        <v>587.1338185139999</v>
+        <v>447.869173194</v>
       </c>
       <c r="L47">
         <v>28.08333333333333</v>
       </c>
       <c r="M47">
-        <v>5.399000500792716</v>
+        <v>4.218887519850897</v>
       </c>
       <c r="N47">
-        <v>5.399000500792716</v>
+        <v>4.218887519850897</v>
       </c>
       <c r="O47">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P47">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q47">
+        <v>24.48081149350897</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="2">
         <v>42190</v>
       </c>
@@ -2807,25 +3095,31 @@
         <v>3.682617488658199</v>
       </c>
       <c r="K48">
-        <v>421.863997284</v>
+        <v>321.800369364</v>
       </c>
       <c r="L48">
         <v>22.07083333333334</v>
       </c>
       <c r="M48">
-        <v>3.652132934356921</v>
+        <v>2.877660473729842</v>
       </c>
       <c r="N48">
-        <v>3.652132934356921</v>
+        <v>2.877660473729842</v>
       </c>
       <c r="O48">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P48">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q48">
+        <v>20.76045511978142</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="2">
         <v>42191</v>
       </c>
@@ -2857,25 +3151,31 @@
         <v>5.570876841048149</v>
       </c>
       <c r="K49">
-        <v>658.4383754055</v>
+        <v>502.2607138155</v>
       </c>
       <c r="L49">
         <v>22.47083333333333</v>
       </c>
       <c r="M49">
-        <v>5.522951858256888</v>
+        <v>4.305398241397851</v>
       </c>
       <c r="N49">
-        <v>5.522951858256888</v>
+        <v>4.305398241397851</v>
       </c>
       <c r="O49">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P49">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q49">
+        <v>20.46681215175221</v>
+      </c>
+      <c r="R49">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="2">
         <v>42192</v>
       </c>
@@ -2907,25 +3207,31 @@
         <v>4.347923557525038</v>
       </c>
       <c r="K50">
-        <v>496.9169418735</v>
+        <v>379.0512024435001</v>
       </c>
       <c r="L50">
         <v>23.10833333333333</v>
       </c>
       <c r="M50">
-        <v>4.311351156264553</v>
+        <v>3.382214475592769</v>
       </c>
       <c r="N50">
-        <v>4.311351156264553</v>
+        <v>3.382214475592769</v>
       </c>
       <c r="O50">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P50">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q50">
+        <v>30.09615753292628</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="2">
         <v>42193</v>
       </c>
@@ -2957,25 +3263,31 @@
         <v>2.48587168038806</v>
       </c>
       <c r="K51">
-        <v>300.8081127645</v>
+        <v>229.4582197545</v>
       </c>
       <c r="L51">
         <v>17.6625</v>
       </c>
       <c r="M51">
-        <v>2.466128673314619</v>
+        <v>1.964549574692083</v>
       </c>
       <c r="N51">
-        <v>2.466128673314619</v>
+        <v>1.964549574692083</v>
       </c>
       <c r="O51">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P51">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q51">
+        <v>27.94823397540125</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="2">
         <v>42194</v>
       </c>
@@ -3007,25 +3319,31 @@
         <v>3.965591222542951</v>
       </c>
       <c r="K52">
-        <v>508.9288206329999</v>
+        <v>388.213935093</v>
       </c>
       <c r="L52">
         <v>17.69166666666667</v>
       </c>
       <c r="M52">
-        <v>3.932163273171085</v>
+        <v>3.082912667507445</v>
       </c>
       <c r="N52">
-        <v>3.932163273171085</v>
+        <v>3.082912667507445</v>
       </c>
       <c r="O52">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P52">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q52">
+        <v>25.96236229501319</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="2">
         <v>42195</v>
       </c>
@@ -3057,25 +3375,31 @@
         <v>5.550575166714903</v>
       </c>
       <c r="K53">
-        <v>694.2184397955001</v>
+        <v>529.5539600055</v>
       </c>
       <c r="L53">
         <v>19.78333333333333</v>
       </c>
       <c r="M53">
-        <v>5.502652009815219</v>
+        <v>4.285144780471908</v>
       </c>
       <c r="N53">
-        <v>5.502652009815219</v>
+        <v>4.285144780471908</v>
       </c>
       <c r="O53">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P53">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q53">
+        <v>25.0473592449206</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="2">
         <v>42196</v>
       </c>
@@ -3107,25 +3431,31 @@
         <v>5.614380604568507</v>
       </c>
       <c r="K54">
-        <v>674.4542137515</v>
+        <v>514.4776906815</v>
       </c>
       <c r="L54">
         <v>21.675</v>
       </c>
       <c r="M54">
-        <v>5.566000983771749</v>
+        <v>4.336897104070339</v>
       </c>
       <c r="N54">
-        <v>5.566000983771749</v>
+        <v>4.336897104070339</v>
       </c>
       <c r="O54">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P54">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q54">
+        <v>21.4182375225859</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="2">
         <v>42197</v>
       </c>
@@ -3157,25 +3487,31 @@
         <v>3.468582965786408</v>
       </c>
       <c r="K55">
-        <v>419.9046128055</v>
+        <v>320.3057392155</v>
       </c>
       <c r="L55">
         <v>19.33333333333333</v>
       </c>
       <c r="M55">
-        <v>3.439884252964534</v>
+        <v>2.710781819111525</v>
       </c>
       <c r="N55">
-        <v>3.439884252964534</v>
+        <v>2.710781819111525</v>
       </c>
       <c r="O55">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P55">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q55">
+        <v>14.84586897456437</v>
+      </c>
+      <c r="R55">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="2">
         <v>42198</v>
       </c>
@@ -3207,25 +3543,31 @@
         <v>2.28118472798784</v>
       </c>
       <c r="K56">
-        <v>246.6268724025</v>
+        <v>188.1284469525</v>
       </c>
       <c r="L56">
         <v>21.32083333333333</v>
       </c>
       <c r="M56">
-        <v>2.263613190212998</v>
+        <v>1.817201149446742</v>
       </c>
       <c r="N56">
-        <v>2.263613190212998</v>
+        <v>1.817201149446742</v>
       </c>
       <c r="O56">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P56">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q56">
+        <v>26.67750823100018</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="2">
         <v>42199</v>
       </c>
@@ -3257,25 +3599,31 @@
         <v>3.176639476971981</v>
       </c>
       <c r="K57">
-        <v>364.3603223715</v>
+        <v>277.9362237015</v>
       </c>
       <c r="L57">
         <v>21.1375</v>
       </c>
       <c r="M57">
-        <v>3.150772385573394</v>
+        <v>2.493608441933612</v>
       </c>
       <c r="N57">
-        <v>3.150772385573394</v>
+        <v>2.493608441933612</v>
       </c>
       <c r="O57">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P57">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q57">
+        <v>24.39632350301234</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="2">
         <v>42200</v>
       </c>
@@ -3307,25 +3655,31 @@
         <v>4.236812068812003</v>
       </c>
       <c r="K58">
-        <v>486.097731927</v>
+        <v>370.798244667</v>
       </c>
       <c r="L58">
         <v>22.76666666666667</v>
       </c>
       <c r="M58">
-        <v>4.201246038640629</v>
+        <v>3.297676623475987</v>
       </c>
       <c r="N58">
-        <v>4.201246038640629</v>
+        <v>3.297676623475987</v>
       </c>
       <c r="O58">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P58">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q58">
+        <v>22.70503104330275</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="2">
         <v>42201</v>
       </c>
@@ -3357,25 +3711,31 @@
         <v>5.893015619857835</v>
       </c>
       <c r="K59">
-        <v>656.0530377795</v>
+        <v>500.4411640695</v>
       </c>
       <c r="L59">
         <v>26.26666666666667</v>
       </c>
       <c r="M59">
-        <v>5.842332244760255</v>
+        <v>4.55470055309205</v>
       </c>
       <c r="N59">
-        <v>5.842332244760255</v>
+        <v>4.55470055309205</v>
       </c>
       <c r="O59">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P59">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q59">
+        <v>18.39102433284566</v>
+      </c>
+      <c r="R59">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="2">
         <v>42202</v>
       </c>
@@ -3407,25 +3767,31 @@
         <v>4.83811494187258</v>
       </c>
       <c r="K60">
-        <v>540.1937816595001</v>
+        <v>412.0630335495001</v>
       </c>
       <c r="L60">
         <v>25.025</v>
       </c>
       <c r="M60">
-        <v>4.797121599459759</v>
+        <v>3.75566911653944</v>
       </c>
       <c r="N60">
-        <v>4.797121599459759</v>
+        <v>3.75566911653944</v>
       </c>
       <c r="O60">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P60">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q60">
+        <v>27.69823093521005</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="2">
         <v>42203</v>
       </c>
@@ -3457,25 +3823,31 @@
         <v>4.260784952088116</v>
       </c>
       <c r="K61">
-        <v>492.1462666215</v>
+        <v>375.4121029515</v>
       </c>
       <c r="L61">
         <v>22.45</v>
       </c>
       <c r="M61">
-        <v>4.224976980333372</v>
+        <v>3.315260941158752</v>
       </c>
       <c r="N61">
-        <v>4.224976980333372</v>
+        <v>3.315260941158752</v>
       </c>
       <c r="O61">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P61">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q61">
+        <v>22.86011599333747</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="2">
         <v>42204</v>
       </c>
@@ -3507,25 +3879,31 @@
         <v>3.230182557987347</v>
       </c>
       <c r="K62">
-        <v>365.3826099255</v>
+        <v>278.7160307355</v>
       </c>
       <c r="L62">
         <v>21.88333333333334</v>
       </c>
       <c r="M62">
-        <v>3.203870659203958</v>
+        <v>2.53540620362596</v>
       </c>
       <c r="N62">
-        <v>3.203870659203958</v>
+        <v>2.53540620362596</v>
       </c>
       <c r="O62">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P62">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q62">
+        <v>19.8512450487616</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="2">
         <v>42205</v>
       </c>
@@ -3557,25 +3935,31 @@
         <v>1.701185052682019</v>
       </c>
       <c r="K63">
-        <v>166.0365368955</v>
+        <v>126.6536591055</v>
       </c>
       <c r="L63">
         <v>22.63333333333334</v>
       </c>
       <c r="M63">
-        <v>1.689065111759591</v>
+        <v>1.381153099135738</v>
       </c>
       <c r="N63">
-        <v>1.689065111759591</v>
+        <v>1.381153099135738</v>
       </c>
       <c r="O63">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P63">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q63">
+        <v>15.08068548746097</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="2">
         <v>42206</v>
       </c>
@@ -3607,25 +3991,31 @@
         <v>3.243844972222318</v>
       </c>
       <c r="K64">
-        <v>356.267212569</v>
+        <v>271.762751349</v>
       </c>
       <c r="L64">
         <v>23.38333333333334</v>
       </c>
       <c r="M64">
-        <v>3.217502253602254</v>
+        <v>2.548254807578989</v>
       </c>
       <c r="N64">
-        <v>3.217502253602254</v>
+        <v>2.548254807578989</v>
       </c>
       <c r="O64">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P64">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q64">
+        <v>10.50308117227384</v>
+      </c>
+      <c r="R64">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="2">
         <v>42207</v>
       </c>
@@ -3657,25 +4047,31 @@
         <v>3.7680707424912</v>
       </c>
       <c r="K65">
-        <v>436.17602304</v>
+        <v>332.71766784</v>
       </c>
       <c r="L65">
         <v>21.69583333333334</v>
       </c>
       <c r="M65">
-        <v>3.736770884024144</v>
+        <v>2.941585290536782</v>
       </c>
       <c r="N65">
-        <v>3.736770884024144</v>
+        <v>2.941585290536782</v>
       </c>
       <c r="O65">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P65">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q65">
+        <v>10.34605553549439</v>
+      </c>
+      <c r="R65">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="2">
         <v>42208</v>
       </c>
@@ -3707,25 +4103,31 @@
         <v>4.406595458858659</v>
       </c>
       <c r="K66">
-        <v>533.8896750765</v>
+        <v>407.2542235065001</v>
       </c>
       <c r="L66">
         <v>20.34583333333333</v>
       </c>
       <c r="M66">
-        <v>4.369295377128509</v>
+        <v>3.421671679119311</v>
       </c>
       <c r="N66">
-        <v>4.369295377128509</v>
+        <v>3.421671679119311</v>
       </c>
       <c r="O66">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P66">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q66">
+        <v>23.57820701522541</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="2">
         <v>42209</v>
       </c>
@@ -3757,25 +4159,31 @@
         <v>3.815344467147541</v>
       </c>
       <c r="K67">
-        <v>443.161654659</v>
+        <v>338.046349239</v>
       </c>
       <c r="L67">
         <v>21.6</v>
       </c>
       <c r="M67">
-        <v>3.783600891482163</v>
+        <v>2.977142482686098</v>
       </c>
       <c r="N67">
-        <v>3.783600891482163</v>
+        <v>2.977142482686098</v>
       </c>
       <c r="O67">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P67">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q67">
+        <v>19.8256849793791</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="2">
         <v>42210</v>
       </c>
@@ -3807,25 +4215,31 @@
         <v>3.47187957386848</v>
       </c>
       <c r="K68">
-        <v>434.642591709</v>
+        <v>331.547957289</v>
       </c>
       <c r="L68">
         <v>18.075</v>
       </c>
       <c r="M68">
-        <v>3.443050430440582</v>
+        <v>2.710634354164256</v>
       </c>
       <c r="N68">
-        <v>3.443050430440582</v>
+        <v>2.710634354164256</v>
       </c>
       <c r="O68">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P68">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q68">
+        <v>15.92147963599943</v>
+      </c>
+      <c r="R68">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="2">
         <v>42211</v>
       </c>
@@ -3857,25 +4271,31 @@
         <v>1.682421419969681</v>
       </c>
       <c r="K69">
-        <v>200.538741843</v>
+        <v>152.972146503</v>
       </c>
       <c r="L69">
         <v>15.78333333333333</v>
       </c>
       <c r="M69">
-        <v>1.669941770887479</v>
+        <v>1.352891226636943</v>
       </c>
       <c r="N69">
-        <v>1.669941770887479</v>
+        <v>1.352891226636943</v>
       </c>
       <c r="O69">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P69">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q69">
+        <v>28.54982228435318</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="2">
         <v>42212</v>
       </c>
@@ -3907,25 +4327,31 @@
         <v>2.587351594601051</v>
       </c>
       <c r="K70">
-        <v>309.4975569735</v>
+        <v>236.0865795435</v>
       </c>
       <c r="L70">
         <v>18.275</v>
       </c>
       <c r="M70">
-        <v>2.56672072420674</v>
+        <v>2.042585097972863</v>
       </c>
       <c r="N70">
-        <v>2.56672072420674</v>
+        <v>2.042585097972863</v>
       </c>
       <c r="O70">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P70">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q70">
+        <v>32.86740086438351</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="2">
         <v>42213</v>
       </c>
@@ -3957,25 +4383,31 @@
         <v>2.269824082630849</v>
       </c>
       <c r="K71">
-        <v>283.0884618285</v>
+        <v>215.9415644985</v>
       </c>
       <c r="L71">
         <v>16.25416666666667</v>
       </c>
       <c r="M71">
-        <v>2.251955094615214</v>
+        <v>1.797986209893672</v>
       </c>
       <c r="N71">
-        <v>2.251955094615214</v>
+        <v>1.797986209893672</v>
       </c>
       <c r="O71">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P71">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q71">
+        <v>32.28004926978245</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="2">
         <v>42214</v>
       </c>
@@ -4007,25 +4439,31 @@
         <v>3.264805944405549</v>
       </c>
       <c r="K72">
-        <v>429.190391421</v>
+        <v>327.388986441</v>
       </c>
       <c r="L72">
         <v>16.23333333333333</v>
       </c>
       <c r="M72">
-        <v>3.237731449398453</v>
+        <v>2.549892927596554</v>
       </c>
       <c r="N72">
-        <v>3.237731449398453</v>
+        <v>2.549892927596554</v>
       </c>
       <c r="O72">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P72">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q72">
+        <v>30.21022518715161</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="2">
         <v>42215</v>
       </c>
@@ -4057,25 +4495,31 @@
         <v>3.535967891447941</v>
       </c>
       <c r="K73">
-        <v>472.9783749840001</v>
+        <v>360.7907210640001</v>
       </c>
       <c r="L73">
         <v>15.975</v>
       </c>
       <c r="M73">
-        <v>3.506361066176019</v>
+        <v>2.754187667375826</v>
       </c>
       <c r="N73">
-        <v>3.506361066176019</v>
+        <v>2.754187667375826</v>
       </c>
       <c r="O73">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P73">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q73">
+        <v>26.94541924274606</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="2">
         <v>42216</v>
       </c>
@@ -4107,25 +4551,31 @@
         <v>4.506046117768801</v>
       </c>
       <c r="K74">
-        <v>608.772238407</v>
+        <v>464.375088747</v>
       </c>
       <c r="L74">
         <v>16.35833333333333</v>
       </c>
       <c r="M74">
-        <v>4.467501661415954</v>
+        <v>3.488264121640896</v>
       </c>
       <c r="N74">
-        <v>4.467501661415954</v>
+        <v>3.488264121640896</v>
       </c>
       <c r="O74">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P74">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q74">
+        <v>23.40945135129812</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="2">
         <v>42217</v>
       </c>
@@ -4157,25 +4607,31 @@
         <v>4.929732026182196</v>
       </c>
       <c r="K75">
-        <v>622.3175484975</v>
+        <v>474.7075319474999</v>
       </c>
       <c r="L75">
         <v>19.02916666666667</v>
       </c>
       <c r="M75">
-        <v>4.887494204952255</v>
+        <v>3.814425233164567</v>
       </c>
       <c r="N75">
-        <v>4.887494204952255</v>
+        <v>3.814425233164567</v>
       </c>
       <c r="O75">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P75">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q75">
+        <v>19.40841560159261</v>
+      </c>
+      <c r="R75">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="2">
         <v>42218</v>
       </c>
@@ -4207,25 +4663,31 @@
         <v>5.233516609375464</v>
       </c>
       <c r="K76">
-        <v>636.033239847</v>
+        <v>485.169942987</v>
       </c>
       <c r="L76">
         <v>20.86666666666667</v>
       </c>
       <c r="M76">
-        <v>5.188604559363276</v>
+        <v>4.047595721215805</v>
       </c>
       <c r="N76">
-        <v>5.188604559363276</v>
+        <v>4.047595721215805</v>
       </c>
       <c r="O76">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P76">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q76">
+        <v>29.67890579763264</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="2">
         <v>42219</v>
       </c>
@@ -4257,25 +4719,31 @@
         <v>5.359468231248066</v>
       </c>
       <c r="K77">
-        <v>600.1679848274999</v>
+        <v>457.8117128775</v>
       </c>
       <c r="L77">
         <v>25.39583333333333</v>
       </c>
       <c r="M77">
-        <v>5.31367305598834</v>
+        <v>4.150228062903426</v>
       </c>
       <c r="N77">
-        <v>5.31367305598834</v>
+        <v>4.150228062903426</v>
       </c>
       <c r="O77">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P77">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q77">
+        <v>24.44538918825717</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="2">
         <v>42220</v>
       </c>
@@ -4307,25 +4775,31 @@
         <v>4.256236933199359</v>
       </c>
       <c r="K78">
-        <v>502.1135702730001</v>
+        <v>383.015221533</v>
       </c>
       <c r="L78">
         <v>21.40833333333333</v>
       </c>
       <c r="M78">
-        <v>4.22040213010011</v>
+        <v>3.310004429740811</v>
       </c>
       <c r="N78">
-        <v>4.22040213010011</v>
+        <v>3.310004429740811</v>
       </c>
       <c r="O78">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P78">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q78">
+        <v>20.4629800358358</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="2">
         <v>42221</v>
       </c>
@@ -4357,25 +4831,31 @@
         <v>4.927308321427161</v>
       </c>
       <c r="K79">
-        <v>580.2333775244999</v>
+        <v>442.6054757145</v>
       </c>
       <c r="L79">
         <v>22.15416666666667</v>
       </c>
       <c r="M79">
-        <v>4.885315833561844</v>
+        <v>3.818479655361887</v>
       </c>
       <c r="N79">
-        <v>4.885315833561844</v>
+        <v>3.818479655361887</v>
       </c>
       <c r="O79">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P79">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q79">
+        <v>17.14803450208737</v>
+      </c>
+      <c r="R79">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="2">
         <v>42222</v>
       </c>
@@ -4407,25 +4887,31 @@
         <v>5.141630708252879</v>
       </c>
       <c r="K80">
-        <v>593.9490688740001</v>
+        <v>453.0678867540001</v>
       </c>
       <c r="L80">
         <v>23.35833333333333</v>
       </c>
       <c r="M80">
-        <v>5.097731940191111</v>
+        <v>3.982465940784056</v>
       </c>
       <c r="N80">
-        <v>5.097731940191111</v>
+        <v>3.982465940784056</v>
       </c>
       <c r="O80">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P80">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q80">
+        <v>27.42094840288243</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="2">
         <v>42223</v>
       </c>
@@ -4457,25 +4943,31 @@
         <v>4.321475935700133</v>
       </c>
       <c r="K81">
-        <v>497.5984669095</v>
+        <v>379.5710737995</v>
       </c>
       <c r="L81">
         <v>22.68333333333333</v>
       </c>
       <c r="M81">
-        <v>4.285121483869872</v>
+        <v>3.36152189683085</v>
       </c>
       <c r="N81">
-        <v>4.285121483869872</v>
+        <v>3.36152189683085</v>
       </c>
       <c r="O81">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P81">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q81">
+        <v>26.7943460310169</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="2">
         <v>42224</v>
       </c>
@@ -4507,25 +4999,31 @@
         <v>3.853145168306612</v>
       </c>
       <c r="K82">
-        <v>435.664879263</v>
+        <v>332.327764323</v>
       </c>
       <c r="L82">
         <v>22.99583333333333</v>
       </c>
       <c r="M82">
-        <v>3.821142459971757</v>
+        <v>3.00810068065383</v>
       </c>
       <c r="N82">
-        <v>3.821142459971757</v>
+        <v>3.00810068065383</v>
       </c>
       <c r="O82">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P82">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q82">
+        <v>26.40951993292537</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="2">
         <v>42225</v>
       </c>
@@ -4557,25 +5055,31 @@
         <v>1.90544273763039</v>
       </c>
       <c r="K83">
-        <v>196.8755447745</v>
+        <v>150.1778379645</v>
       </c>
       <c r="L83">
         <v>21.525</v>
       </c>
       <c r="M83">
-        <v>1.891360693128664</v>
+        <v>1.533600643625358</v>
       </c>
       <c r="N83">
-        <v>1.891360693128664</v>
+        <v>1.533600643625358</v>
       </c>
       <c r="O83">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P83">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q83">
+        <v>26.1269438587477</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="2">
         <v>42226</v>
       </c>
@@ -4607,25 +5111,31 @@
         <v>3.998566401031378</v>
       </c>
       <c r="K84">
-        <v>466.333505883</v>
+        <v>355.721975343</v>
       </c>
       <c r="L84">
         <v>21.65</v>
       </c>
       <c r="M84">
-        <v>3.965131384195644</v>
+        <v>3.115701226747267</v>
       </c>
       <c r="N84">
-        <v>3.965131384195644</v>
+        <v>3.115701226747267</v>
       </c>
       <c r="O84">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P84">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q84">
+        <v>24.92150112111731</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="2">
         <v>42227</v>
       </c>
@@ -4657,25 +5167,31 @@
         <v>2.750428740286764</v>
       </c>
       <c r="K85">
-        <v>444.183942213</v>
+        <v>338.826156273</v>
       </c>
       <c r="L85">
         <v>23.12083333333333</v>
       </c>
       <c r="M85">
-        <v>3.896485631153042</v>
+        <v>3.065772481699137</v>
       </c>
       <c r="N85">
-        <v>2.727539941807129</v>
+        <v>2.146040737189396</v>
       </c>
       <c r="O85">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P85">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q85">
+        <v>22.8694437691124</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="2">
         <v>42228</v>
       </c>
@@ -4707,25 +5223,31 @@
         <v>3.367228794591241</v>
       </c>
       <c r="K86">
-        <v>527.7559497525</v>
+        <v>402.5753813025</v>
       </c>
       <c r="L86">
         <v>26.1</v>
       </c>
       <c r="M86">
-        <v>4.769649482993267</v>
+        <v>3.736224498198011</v>
       </c>
       <c r="N86">
-        <v>3.338754638095287</v>
+        <v>2.615357148738608</v>
       </c>
       <c r="O86">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P86">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q86">
+        <v>20.17999808007143</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="2">
         <v>42229</v>
       </c>
@@ -4757,25 +5279,31 @@
         <v>2.251504243487584</v>
       </c>
       <c r="K87">
-        <v>344.2553338095</v>
+        <v>262.6000186995</v>
       </c>
       <c r="L87">
         <v>24.73333333333333</v>
       </c>
       <c r="M87">
-        <v>3.190425293562447</v>
+        <v>2.529647466757867</v>
       </c>
       <c r="N87">
-        <v>2.233297705493713</v>
+        <v>1.770753226730507</v>
       </c>
       <c r="O87">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P87">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q87">
+        <v>14.88055665421591</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="2">
         <v>42230</v>
       </c>
@@ -4807,25 +5335,31 @@
         <v>2.178609077422626</v>
       </c>
       <c r="K88">
-        <v>362.741700411</v>
+        <v>276.701529231</v>
       </c>
       <c r="L88">
         <v>20.32083333333333</v>
       </c>
       <c r="M88">
-        <v>3.086969039490127</v>
+        <v>2.443459201931654</v>
       </c>
       <c r="N88">
-        <v>2.160878327643089</v>
+        <v>1.710421441352158</v>
       </c>
       <c r="O88">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P88">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q88">
+        <v>11.63606779822638</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="2">
         <v>42231</v>
       </c>
@@ -4857,25 +5391,31 @@
         <v>1.993779871571429</v>
       </c>
       <c r="K89">
-        <v>351.837299835</v>
+        <v>268.383587535</v>
       </c>
       <c r="L89">
         <v>17.66666666666667</v>
       </c>
       <c r="M89">
-        <v>2.825162240676683</v>
+        <v>2.238431549098112</v>
       </c>
       <c r="N89">
-        <v>1.977613568473678</v>
+        <v>1.566902084368678</v>
       </c>
       <c r="O89">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P89">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q89">
+        <v>7.939692889433524</v>
+      </c>
+      <c r="R89">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="2">
         <v>42232</v>
       </c>
@@ -4907,25 +5447,31 @@
         <v>1.718180148547541</v>
       </c>
       <c r="K90">
-        <v>302.3415440955</v>
+        <v>230.6279303055</v>
       </c>
       <c r="L90">
         <v>17.025</v>
       </c>
       <c r="M90">
-        <v>2.435034886711524</v>
+        <v>1.939421597966113</v>
       </c>
       <c r="N90">
-        <v>1.704524420698067</v>
+        <v>1.357595118576279</v>
       </c>
       <c r="O90">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P90">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q90">
+        <v>24.74613524008432</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="2">
         <v>42233</v>
       </c>
@@ -4957,25 +5503,31 @@
         <v>1.964141409114942</v>
       </c>
       <c r="K91">
-        <v>346.2999089175</v>
+        <v>264.1596327675</v>
       </c>
       <c r="L91">
         <v>17.625</v>
       </c>
       <c r="M91">
-        <v>2.783209705156235</v>
+        <v>2.206339489895891</v>
       </c>
       <c r="N91">
-        <v>1.948246793609365</v>
+        <v>1.544437642927123</v>
       </c>
       <c r="O91">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P91">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q91">
+        <v>23.22795509153677</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="2">
         <v>42234</v>
       </c>
@@ -5007,25 +5559,31 @@
         <v>1.937826024908094</v>
       </c>
       <c r="K92">
-        <v>348.5148652845</v>
+        <v>265.8492146745</v>
       </c>
       <c r="L92">
         <v>16.91666666666667</v>
       </c>
       <c r="M92">
-        <v>2.745902687952469</v>
+        <v>2.176308296412547</v>
       </c>
       <c r="N92">
-        <v>1.922131881566728</v>
+        <v>1.523415807488782</v>
       </c>
       <c r="O92">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P92">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q92">
+        <v>21.66261791304657</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="2">
         <v>42235</v>
       </c>
@@ -5057,25 +5615,31 @@
         <v>2.399236509743065</v>
       </c>
       <c r="K93">
-        <v>415.219128183</v>
+        <v>316.731623643</v>
       </c>
       <c r="L93">
         <v>19.25</v>
       </c>
       <c r="M93">
-        <v>3.399155819789657</v>
+        <v>2.679550038442649</v>
       </c>
       <c r="N93">
-        <v>2.37940907385276</v>
+        <v>1.875685026909854</v>
       </c>
       <c r="O93">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P93">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q93">
+        <v>18.74054312453492</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="2">
         <v>42236</v>
       </c>
@@ -5107,25 +5671,31 @@
         <v>1.529947843441838</v>
       </c>
       <c r="K94">
-        <v>247.3083974385</v>
+        <v>188.6483183085</v>
       </c>
       <c r="L94">
         <v>19.17916666666667</v>
       </c>
       <c r="M94">
-        <v>2.168796439634573</v>
+        <v>1.740884642114145</v>
       </c>
       <c r="N94">
-        <v>1.518157507744201</v>
+        <v>1.218619249479901</v>
       </c>
       <c r="O94">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P94">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q94">
+        <v>13.4316001809515</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="2">
         <v>42237</v>
       </c>
@@ -5157,25 +5727,31 @@
         <v>3.04322261612154</v>
       </c>
       <c r="K95">
-        <v>507.6509611905</v>
+        <v>387.2391763005</v>
       </c>
       <c r="L95">
         <v>22.00416666666667</v>
       </c>
       <c r="M95">
-        <v>4.310822141494359</v>
+        <v>3.380000131804778</v>
       </c>
       <c r="N95">
-        <v>3.017575499046051</v>
+        <v>2.366000092263344</v>
       </c>
       <c r="O95">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P95">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q95">
+        <v>10.95817123590992</v>
+      </c>
+      <c r="R95">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="2">
         <v>42238</v>
       </c>
@@ -5207,25 +5783,31 @@
         <v>3.348166861951219</v>
       </c>
       <c r="K96">
-        <v>548.286891462</v>
+        <v>418.236505902</v>
       </c>
       <c r="L96">
         <v>23.4375</v>
       </c>
       <c r="M96">
-        <v>4.742518042076829</v>
+        <v>3.711630839467073</v>
       </c>
       <c r="N96">
-        <v>3.31976262945378</v>
+        <v>2.598141587626951</v>
       </c>
       <c r="O96">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P96">
-        <v>1.77371166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q96">
+        <v>23.11517084201061</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="2">
         <v>42239</v>
       </c>
@@ -5257,22 +5839,28 @@
         <v>1.404460427354869</v>
       </c>
       <c r="K97">
-        <v>217.576867743</v>
+        <v>165.968930403</v>
       </c>
       <c r="L97">
         <v>20.08333333333333</v>
       </c>
       <c r="M97">
-        <v>1.991254932633774</v>
+        <v>1.607198714851779</v>
       </c>
       <c r="N97">
-        <v>1.393878452843642</v>
+        <v>1.125039100396245</v>
       </c>
       <c r="O97">
-        <v>0.5912372199999999</v>
+        <v>22.80033333333333</v>
       </c>
       <c r="P97">
-        <v>1.77371166</v>
+        <v>68.40100000000001</v>
+      </c>
+      <c r="Q97">
+        <v>20.03995587931944</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>temperature_2m</t>
   </si>
@@ -64,7 +64,13 @@
     <t>eau_utile</t>
   </si>
   <si>
+    <t>eau_utile_pv</t>
+  </si>
+  <si>
     <t>irrigation</t>
+  </si>
+  <si>
+    <t>irrigation_pv</t>
   </si>
 </sst>
 </file>
@@ -428,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +492,14 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2">
         <v>42144</v>
       </c>
@@ -540,10 +552,16 @@
         <v>68.40100000000001</v>
       </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>68.40100000000001</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>42145</v>
       </c>
@@ -596,10 +614,16 @@
         <v>66.83292343299703</v>
       </c>
       <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>67.20808041861214</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>42146</v>
       </c>
@@ -652,10 +676,16 @@
         <v>65.43564757567354</v>
       </c>
       <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>66.14179187052289</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>42147</v>
       </c>
@@ -708,10 +738,16 @@
         <v>63.52796075393557</v>
       </c>
       <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>64.66312617130458</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="2">
         <v>42148</v>
       </c>
@@ -764,10 +800,16 @@
         <v>62.02807751983944</v>
       </c>
       <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>63.48984924079436</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="2">
         <v>42149</v>
       </c>
@@ -820,10 +862,16 @@
         <v>60.11206679705514</v>
       </c>
       <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>62.0020071262859</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="2">
         <v>42150</v>
       </c>
@@ -876,10 +924,16 @@
         <v>60.48261143983418</v>
       </c>
       <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>62.6339426812843</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="2">
         <v>42151</v>
       </c>
@@ -932,10 +986,16 @@
         <v>59.38288906925094</v>
       </c>
       <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>61.76503130501287</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="2">
         <v>42152</v>
       </c>
@@ -988,10 +1048,16 @@
         <v>57.26822974199008</v>
       </c>
       <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>60.12731963800069</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="2">
         <v>42153</v>
       </c>
@@ -1044,10 +1110,16 @@
         <v>55.52122672106817</v>
       </c>
       <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>58.76721057246873</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="2">
         <v>42154</v>
       </c>
@@ -1100,10 +1172,16 @@
         <v>55.54515419623365</v>
       </c>
       <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>59.04013085714877</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="2">
         <v>42155</v>
       </c>
@@ -1156,10 +1234,16 @@
         <v>53.72116942884516</v>
       </c>
       <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>57.62339146451866</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="2">
         <v>42156</v>
       </c>
@@ -1212,10 +1296,16 @@
         <v>58.80829203056754</v>
       </c>
       <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>62.82130581198848</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="2">
         <v>42157</v>
       </c>
@@ -1268,10 +1358,16 @@
         <v>57.28153631505303</v>
       </c>
       <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>61.70387327234815</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="2">
         <v>42158</v>
       </c>
@@ -1324,10 +1420,16 @@
         <v>56.00332304532113</v>
       </c>
       <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>60.7456396493783</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="2">
         <v>42159</v>
       </c>
@@ -1380,10 +1482,16 @@
         <v>54.5477464944105</v>
       </c>
       <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>59.60398702652733</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="2">
         <v>42160</v>
       </c>
@@ -1436,10 +1544,16 @@
         <v>51.97403722287856</v>
       </c>
       <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>57.61582278448196</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="2">
         <v>42161</v>
       </c>
@@ -1492,10 +1606,16 @@
         <v>52.47175601642086</v>
       </c>
       <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>58.67707385847105</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="2">
         <v>42162</v>
       </c>
@@ -1548,10 +1668,16 @@
         <v>49.9726553597978</v>
       </c>
       <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>56.74683291545536</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="2">
         <v>42163</v>
       </c>
@@ -1604,10 +1730,16 @@
         <v>47.50671848528209</v>
       </c>
       <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>54.84284916781463</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="2">
         <v>42164</v>
       </c>
@@ -1660,10 +1792,16 @@
         <v>45.04989704028209</v>
       </c>
       <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>52.94641573575588</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="2">
         <v>42165</v>
       </c>
@@ -1716,10 +1854,16 @@
         <v>43.28586922072669</v>
       </c>
       <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>51.57374940335407</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="2">
         <v>42166</v>
       </c>
@@ -1772,10 +1916,16 @@
         <v>41.38329324736628</v>
       </c>
       <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>50.09369179295903</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="2">
         <v>42167</v>
       </c>
@@ -1828,10 +1978,16 @@
         <v>39.67574108741355</v>
       </c>
       <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>49.00054845597726</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="2">
         <v>42168</v>
       </c>
@@ -1884,10 +2040,16 @@
         <v>38.6845074162549</v>
       </c>
       <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>48.47321735899911</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="2">
         <v>42169</v>
       </c>
@@ -1940,10 +2102,16 @@
         <v>36.11382423595462</v>
       </c>
       <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>46.48542301011663</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="2">
         <v>42170</v>
       </c>
@@ -1996,10 +2164,16 @@
         <v>34.6552824004984</v>
       </c>
       <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>45.38819130751475</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="2">
         <v>42171</v>
       </c>
@@ -2052,10 +2226,16 @@
         <v>33.41920627449969</v>
       </c>
       <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>44.43571742193138</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="2">
         <v>42172</v>
       </c>
@@ -2108,10 +2288,16 @@
         <v>31.00489940624074</v>
       </c>
       <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>42.5691726489193</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="2">
         <v>42173</v>
       </c>
@@ -2164,10 +2350,16 @@
         <v>28.71560387357365</v>
       </c>
       <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v>40.79603726764275</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="2">
         <v>42174</v>
       </c>
@@ -2220,10 +2412,16 @@
         <v>31.00745941541781</v>
       </c>
       <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
+        <v>43.19416415507978</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="2">
         <v>42175</v>
       </c>
@@ -2276,10 +2474,16 @@
         <v>29.07607181924366</v>
       </c>
       <c r="R33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
+        <v>41.74226837696038</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="2">
         <v>42176</v>
       </c>
@@ -2332,10 +2536,16 @@
         <v>27.75958579789769</v>
       </c>
       <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
+        <v>40.7055742618258</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="2">
         <v>42177</v>
       </c>
@@ -2388,10 +2598,16 @@
         <v>25.68534047184572</v>
       </c>
       <c r="R35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
+        <v>39.32067486315801</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="2">
         <v>42178</v>
       </c>
@@ -2444,10 +2660,16 @@
         <v>25.46452485307001</v>
       </c>
       <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
+        <v>39.36844925606422</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="2">
         <v>42179</v>
       </c>
@@ -2500,10 +2722,16 @@
         <v>24.85069119413518</v>
       </c>
       <c r="R37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+        <v>36.86099274906636</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="2">
         <v>42180</v>
       </c>
@@ -2556,10 +2784,16 @@
         <v>22.08204109447869</v>
       </c>
       <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
+        <v>33.30706259752561</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="2">
         <v>42181</v>
       </c>
@@ -2612,10 +2846,16 @@
         <v>16.06885388202174</v>
       </c>
       <c r="R39">
+        <v>29.06465997196329</v>
+      </c>
+      <c r="S39">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="2">
         <v>42182</v>
       </c>
@@ -2668,10 +2908,16 @@
         <v>26.05544957368058</v>
       </c>
       <c r="R40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
+        <v>25.02762175670129</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="2">
         <v>42183</v>
       </c>
@@ -2724,10 +2970,16 @@
         <v>24.64330869720064</v>
       </c>
       <c r="R41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
+        <v>23.64770298473121</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="2">
         <v>42184</v>
       </c>
@@ -2780,10 +3032,16 @@
         <v>20.65546789987194</v>
       </c>
       <c r="R42">
+        <v>20.0933870220133</v>
+      </c>
+      <c r="S42">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="2">
         <v>42185</v>
       </c>
@@ -2836,10 +3094,16 @@
         <v>30.24358321268402</v>
       </c>
       <c r="R43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
+        <v>13.88813537113117</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="2">
         <v>42186</v>
       </c>
@@ -2892,10 +3156,16 @@
         <v>24.22175585212061</v>
       </c>
       <c r="R44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
+        <v>24.43890134456939</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="2">
         <v>42187</v>
       </c>
@@ -2948,10 +3218,16 @@
         <v>20.06561743761519</v>
       </c>
       <c r="R45">
+        <v>21.99790821711885</v>
+      </c>
+      <c r="S45">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="2">
         <v>42188</v>
       </c>
@@ -3004,10 +3280,16 @@
         <v>30.35474144756846</v>
       </c>
       <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
+        <v>17.59291635629526</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="2">
         <v>42189</v>
       </c>
@@ -3060,10 +3342,16 @@
         <v>24.48081149350897</v>
       </c>
       <c r="R47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
+        <v>28.25278636841425</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="2">
         <v>42190</v>
       </c>
@@ -3116,10 +3404,16 @@
         <v>20.76045511978142</v>
       </c>
       <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
+        <v>24.33389884856335</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="2">
         <v>42191</v>
       </c>
@@ -3172,10 +3466,16 @@
         <v>20.46681215175221</v>
       </c>
       <c r="R49">
+        <v>26.85623837483351</v>
+      </c>
+      <c r="S49">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="2">
         <v>42192</v>
       </c>
@@ -3228,10 +3528,16 @@
         <v>30.09615753292628</v>
       </c>
       <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18">
+        <v>26.56236333575431</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="2">
         <v>42193</v>
       </c>
@@ -3284,10 +3590,16 @@
         <v>27.94823397540125</v>
       </c>
       <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18">
+        <v>25.38014886016154</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="2">
         <v>42194</v>
       </c>
@@ -3340,10 +3652,16 @@
         <v>25.96236229501319</v>
       </c>
       <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18">
+        <v>23.91559928546946</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="2">
         <v>42195</v>
       </c>
@@ -3396,10 +3714,16 @@
         <v>25.0473592449206</v>
       </c>
       <c r="R53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18">
+        <v>21.85170619705596</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="2">
         <v>42196</v>
       </c>
@@ -3452,10 +3776,16 @@
         <v>21.4182375225859</v>
       </c>
       <c r="R54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18">
+        <v>16.83568978382191</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="2">
         <v>42197</v>
       </c>
@@ -3508,10 +3838,16 @@
         <v>14.84586897456437</v>
       </c>
       <c r="R55">
+        <v>27.69901490197379</v>
+      </c>
+      <c r="S55">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="2">
         <v>42198</v>
       </c>
@@ -3564,10 +3900,16 @@
         <v>26.67750823100018</v>
       </c>
       <c r="R56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18">
+        <v>25.08823308286227</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="2">
         <v>42199</v>
       </c>
@@ -3620,10 +3962,16 @@
         <v>24.39632350301234</v>
       </c>
       <c r="R57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18">
+        <v>23.27103193341553</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="2">
         <v>42200</v>
       </c>
@@ -3676,10 +4024,16 @@
         <v>22.70503104330275</v>
       </c>
       <c r="R58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18">
+        <v>21.20636038498151</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="2">
         <v>42201</v>
       </c>
@@ -3732,10 +4086,16 @@
         <v>18.39102433284566</v>
       </c>
       <c r="R59">
+        <v>16.65668638764722</v>
+      </c>
+      <c r="S59">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="T59">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="2">
         <v>42202</v>
       </c>
@@ -3788,10 +4148,16 @@
         <v>27.69823093521005</v>
       </c>
       <c r="R60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18">
+        <v>27.30220805677739</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="2">
         <v>42203</v>
       </c>
@@ -3844,10 +4210,16 @@
         <v>22.86011599333747</v>
       </c>
       <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
+        <v>23.54653894023795</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="2">
         <v>42204</v>
       </c>
@@ -3900,10 +4272,16 @@
         <v>19.8512450487616</v>
       </c>
       <c r="R62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18">
+        <v>22.13267738531819</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="2">
         <v>42205</v>
       </c>
@@ -3956,10 +4334,16 @@
         <v>15.08068548746097</v>
       </c>
       <c r="R63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18">
+        <v>19.70291172059079</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="2">
         <v>42206</v>
       </c>
@@ -4012,10 +4396,16 @@
         <v>10.50308117227384</v>
       </c>
       <c r="R64">
+        <v>17.99312606479346</v>
+      </c>
+      <c r="S64">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="2">
         <v>42207</v>
       </c>
@@ -4068,10 +4458,16 @@
         <v>10.34605553549439</v>
       </c>
       <c r="R65">
+        <v>12.18848477005739</v>
+      </c>
+      <c r="S65">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="T65">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="2">
         <v>42208</v>
       </c>
@@ -4124,10 +4520,16 @@
         <v>23.57820701522541</v>
       </c>
       <c r="R66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
+        <v>26.24712170174283</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="2">
         <v>42209</v>
       </c>
@@ -4180,10 +4582,16 @@
         <v>19.8256849793791</v>
       </c>
       <c r="R67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>22.82545002262352</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="2">
         <v>42210</v>
       </c>
@@ -4236,10 +4644,16 @@
         <v>15.92147963599943</v>
       </c>
       <c r="R68">
+        <v>22.17270596212938</v>
+      </c>
+      <c r="S68">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="2">
         <v>42211</v>
       </c>
@@ -4292,10 +4706,16 @@
         <v>28.54982228435318</v>
       </c>
       <c r="R69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
+        <v>19.80156254484147</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="2">
         <v>42212</v>
       </c>
@@ -4348,10 +4768,16 @@
         <v>32.86740086438351</v>
       </c>
       <c r="R70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18">
+        <v>24.44867131820453</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="2">
         <v>42213</v>
       </c>
@@ -4404,10 +4830,16 @@
         <v>32.28004926978245</v>
       </c>
       <c r="R71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>24.40608622023166</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="2">
         <v>42214</v>
       </c>
@@ -4460,10 +4892,16 @@
         <v>30.21022518715161</v>
       </c>
       <c r="R72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>22.80810001033799</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="2">
         <v>42215</v>
       </c>
@@ -4516,10 +4954,16 @@
         <v>26.94541924274606</v>
       </c>
       <c r="R73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>20.26510781304239</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="2">
         <v>42216</v>
       </c>
@@ -4572,10 +5016,16 @@
         <v>23.40945135129812</v>
       </c>
       <c r="R74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>15.56383757507239</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="2">
         <v>42217</v>
       </c>
@@ -4628,10 +5078,16 @@
         <v>19.40841560159261</v>
       </c>
       <c r="R75">
+        <v>27.27579567565371</v>
+      </c>
+      <c r="S75">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="2">
         <v>42218</v>
       </c>
@@ -4684,10 +5140,16 @@
         <v>29.67890579763264</v>
       </c>
       <c r="R76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>23.46137044248914</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="2">
         <v>42219</v>
       </c>
@@ -4740,10 +5202,16 @@
         <v>24.44538918825717</v>
       </c>
       <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>19.97662726083648</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="2">
         <v>42220</v>
       </c>
@@ -4796,10 +5264,16 @@
         <v>20.4629800358358</v>
       </c>
       <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>13.86637962858628</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="2">
         <v>42221</v>
       </c>
@@ -4852,10 +5326,16 @@
         <v>17.14803450208737</v>
       </c>
       <c r="R79">
+        <v>28.65659742106769</v>
+      </c>
+      <c r="S79">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="2">
         <v>42222</v>
       </c>
@@ -4908,10 +5388,16 @@
         <v>27.42094840288243</v>
       </c>
       <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>24.8381177657058</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="2">
         <v>42223</v>
       </c>
@@ -4964,10 +5450,16 @@
         <v>26.7943460310169</v>
       </c>
       <c r="R81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>22.71962995166577</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="2">
         <v>42224</v>
       </c>
@@ -5020,10 +5512,16 @@
         <v>26.40951993292537</v>
       </c>
       <c r="R82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>19.28958867137366</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="2">
         <v>42225</v>
       </c>
@@ -5076,10 +5574,16 @@
         <v>26.1269438587477</v>
       </c>
       <c r="R83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+        <v>13.77450064906488</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>15.20022222222222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="2">
         <v>42226</v>
       </c>
@@ -5132,10 +5636,16 @@
         <v>24.92150112111731</v>
       </c>
       <c r="R84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+        <v>28.14112222766174</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="2">
         <v>42227</v>
       </c>
@@ -5188,10 +5698,16 @@
         <v>22.8694437691124</v>
       </c>
       <c r="R85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+        <v>25.02542100091448</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="2">
         <v>42228</v>
       </c>
@@ -5244,10 +5760,16 @@
         <v>20.17999808007143</v>
       </c>
       <c r="R86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+        <v>22.87938026372508</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="2">
         <v>42229</v>
       </c>
@@ -5300,10 +5822,16 @@
         <v>14.88055665421591</v>
       </c>
       <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+        <v>20.33427686089489</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="2">
         <v>42230</v>
       </c>
@@ -5356,10 +5884,16 @@
         <v>11.63606779822638</v>
       </c>
       <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+        <v>23.76352363416438</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="2">
         <v>42231</v>
       </c>
@@ -5412,10 +5946,16 @@
         <v>7.939692889433524</v>
       </c>
       <c r="R89">
+        <v>28.15310219281222</v>
+      </c>
+      <c r="S89">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="2">
         <v>42232</v>
       </c>
@@ -5468,10 +6008,16 @@
         <v>24.74613524008432</v>
       </c>
       <c r="R90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
+        <v>30.18620010844355</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="2">
         <v>42233</v>
       </c>
@@ -5524,10 +6070,16 @@
         <v>23.22795509153677</v>
       </c>
       <c r="R91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>29.02860498986727</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="2">
         <v>42234</v>
       </c>
@@ -5580,10 +6132,16 @@
         <v>21.66261791304657</v>
       </c>
       <c r="R92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18">
+        <v>27.48416734694015</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="2">
         <v>42235</v>
       </c>
@@ -5636,10 +6194,16 @@
         <v>18.74054312453492</v>
       </c>
       <c r="R93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18">
+        <v>25.96075153945137</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="2">
         <v>42236</v>
       </c>
@@ -5692,10 +6256,16 @@
         <v>13.4316001809515</v>
       </c>
       <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18">
+        <v>24.08506651254151</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="2">
         <v>42237</v>
       </c>
@@ -5748,10 +6318,16 @@
         <v>10.95817123590992</v>
       </c>
       <c r="R95">
+        <v>29.56644726306161</v>
+      </c>
+      <c r="S95">
         <v>15.20022222222222</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="2">
         <v>42238</v>
       </c>
@@ -5804,10 +6380,16 @@
         <v>23.11517084201061</v>
       </c>
       <c r="R96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18">
+        <v>27.20044717079827</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="2">
         <v>42239</v>
       </c>
@@ -5860,6 +6442,12 @@
         <v>20.03995587931944</v>
       </c>
       <c r="R97">
+        <v>24.60230558317132</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
         <v>0</v>
       </c>
     </row>
